--- a/LABORATORY/LAB_1/result.xlsx
+++ b/LABORATORY/LAB_1/result.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\nicola\OpenNetwork\LABORATORY\LAB_1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B74C6F-67DE-482C-B9EA-8A879E351A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -34,1061 +28,1061 @@
     <t>snr</t>
   </si>
   <si>
-    <t>A-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;D-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;C-&gt;D-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;D-&gt;F-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;C-&gt;D-&gt;F-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;C-&gt;E-&gt;D-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;C-&gt;E-&gt;F-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;D-&gt;E-&gt;F-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;C-&gt;D-&gt;E-&gt;F-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;C-&gt;E-&gt;D-&gt;F-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;C-&gt;E-&gt;F-&gt;D-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;D-&gt;C-&gt;E-&gt;F-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;D-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;B-&gt;D-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;D-&gt;E-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;B-&gt;D-&gt;E-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;B-&gt;F-&gt;D-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;B-&gt;F-&gt;E-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;D-&gt;F-&gt;E-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;B-&gt;D-&gt;F-&gt;E-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;B-&gt;F-&gt;D-&gt;E-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;B-&gt;F-&gt;E-&gt;D-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;D-&gt;B-&gt;F-&gt;E-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;B-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;C-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;B-&gt;F-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;C-&gt;E-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;B-&gt;F-&gt;E-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;C-&gt;E-&gt;F-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;B-&gt;F-&gt;E-&gt;C-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;C-&gt;E-&gt;F-&gt;B-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;C-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;D-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;B-&gt;D-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;B-&gt;F-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;C-&gt;D-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;D-&gt;C-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;D-&gt;F-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;B-&gt;D-&gt;C-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;B-&gt;D-&gt;F-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;B-&gt;F-&gt;D-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;C-&gt;D-&gt;F-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;D-&gt;B-&gt;F-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;B-&gt;F-&gt;D-&gt;C-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;C-&gt;D-&gt;B-&gt;F-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;B-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;D-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;B-&gt;D-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;C-&gt;D-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;C-&gt;E-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;D-&gt;B-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;D-&gt;E-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;B-&gt;D-&gt;E-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;C-&gt;D-&gt;B-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;C-&gt;D-&gt;E-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;C-&gt;E-&gt;D-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;D-&gt;C-&gt;E-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;B-&gt;D-&gt;C-&gt;E-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>A-&gt;C-&gt;E-&gt;D-&gt;B-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;D-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;D-&gt;C-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;F-&gt;D-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;D-&gt;E-&gt;C-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;F-&gt;D-&gt;C-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;F-&gt;E-&gt;C-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;F-&gt;E-&gt;D-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;D-&gt;F-&gt;E-&gt;C-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;F-&gt;D-&gt;E-&gt;C-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;F-&gt;E-&gt;C-&gt;D-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;F-&gt;E-&gt;D-&gt;C-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;A-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;D-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;A-&gt;D-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;D-&gt;A-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;D-&gt;E-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;F-&gt;D-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;F-&gt;E-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;A-&gt;D-&gt;E-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;D-&gt;F-&gt;E-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;F-&gt;D-&gt;A-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;F-&gt;D-&gt;E-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;F-&gt;E-&gt;D-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;A-&gt;D-&gt;F-&gt;E-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;F-&gt;E-&gt;D-&gt;A-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;A-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;F-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;A-&gt;C-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;F-&gt;E-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;A-&gt;C-&gt;E-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;F-&gt;E-&gt;C-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;A-&gt;C-&gt;E-&gt;F-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;F-&gt;E-&gt;C-&gt;A-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;D-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;F-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;A-&gt;C-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;A-&gt;D-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;D-&gt;C-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;D-&gt;F-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;F-&gt;D-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;A-&gt;C-&gt;D-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;A-&gt;D-&gt;C-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;A-&gt;D-&gt;F-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;D-&gt;A-&gt;C-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;F-&gt;D-&gt;C-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;A-&gt;C-&gt;D-&gt;F-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;F-&gt;D-&gt;A-&gt;C-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;D-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;A-&gt;D-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;D-&gt;E-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;A-&gt;C-&gt;D-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;A-&gt;C-&gt;E-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;A-&gt;D-&gt;E-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;D-&gt;C-&gt;E-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;A-&gt;C-&gt;D-&gt;E-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;A-&gt;C-&gt;E-&gt;D-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;A-&gt;D-&gt;C-&gt;E-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>B-&gt;D-&gt;A-&gt;C-&gt;E-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;D-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;D-&gt;B-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;E-&gt;D-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;D-&gt;F-&gt;B-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;E-&gt;D-&gt;B-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;E-&gt;F-&gt;B-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;E-&gt;F-&gt;D-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;D-&gt;E-&gt;F-&gt;B-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;E-&gt;D-&gt;F-&gt;B-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;E-&gt;F-&gt;B-&gt;D-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;E-&gt;F-&gt;D-&gt;B-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;A-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;D-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;A-&gt;D-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;D-&gt;A-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;D-&gt;F-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;E-&gt;D-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;E-&gt;F-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;A-&gt;D-&gt;F-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;D-&gt;E-&gt;F-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;E-&gt;D-&gt;A-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;E-&gt;D-&gt;F-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;E-&gt;F-&gt;D-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;A-&gt;D-&gt;E-&gt;F-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;E-&gt;F-&gt;D-&gt;A-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;A-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;E-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;A-&gt;B-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;E-&gt;F-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;A-&gt;B-&gt;F-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;E-&gt;F-&gt;B-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;A-&gt;B-&gt;F-&gt;E-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;E-&gt;F-&gt;B-&gt;A-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;D-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;A-&gt;D-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;D-&gt;F-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;A-&gt;B-&gt;D-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;A-&gt;B-&gt;F-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;A-&gt;D-&gt;F-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;D-&gt;B-&gt;F-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;A-&gt;B-&gt;D-&gt;F-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;A-&gt;B-&gt;F-&gt;D-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;A-&gt;D-&gt;B-&gt;F-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;D-&gt;A-&gt;B-&gt;F-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;D-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;E-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;A-&gt;B-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;A-&gt;D-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;D-&gt;B-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;D-&gt;E-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;E-&gt;D-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;A-&gt;B-&gt;D-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;A-&gt;D-&gt;B-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;A-&gt;D-&gt;E-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;D-&gt;A-&gt;B-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;E-&gt;D-&gt;B-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;A-&gt;B-&gt;D-&gt;E-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>C-&gt;E-&gt;D-&gt;A-&gt;B-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;B-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;C-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;E-&gt;C-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;F-&gt;B-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;E-&gt;F-&gt;B-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;F-&gt;E-&gt;C-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;B-&gt;F-&gt;E-&gt;C-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;C-&gt;E-&gt;F-&gt;B-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;A-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;F-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;C-&gt;A-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;E-&gt;F-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;C-&gt;E-&gt;F-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;E-&gt;C-&gt;A-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;A-&gt;C-&gt;E-&gt;F-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;F-&gt;E-&gt;C-&gt;A-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;A-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;E-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;B-&gt;A-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;F-&gt;E-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;B-&gt;F-&gt;E-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;F-&gt;B-&gt;A-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;A-&gt;B-&gt;F-&gt;E-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;E-&gt;F-&gt;B-&gt;A-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;C-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;F-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;A-&gt;C-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;B-&gt;F-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;A-&gt;B-&gt;F-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;B-&gt;A-&gt;C-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;C-&gt;A-&gt;B-&gt;F-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;F-&gt;B-&gt;A-&gt;C-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;B-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;E-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;A-&gt;B-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;C-&gt;E-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;A-&gt;C-&gt;E-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;C-&gt;A-&gt;B-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;B-&gt;A-&gt;C-&gt;E-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>D-&gt;E-&gt;C-&gt;A-&gt;B-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;C-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;D-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;C-&gt;D-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;D-&gt;B-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;D-&gt;C-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;F-&gt;B-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;F-&gt;D-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;C-&gt;D-&gt;B-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;D-&gt;F-&gt;B-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;F-&gt;B-&gt;D-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;F-&gt;D-&gt;B-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;F-&gt;D-&gt;C-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;C-&gt;D-&gt;F-&gt;B-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;F-&gt;B-&gt;D-&gt;C-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;D-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;F-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;C-&gt;A-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;C-&gt;D-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;D-&gt;A-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;D-&gt;F-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;F-&gt;D-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;C-&gt;A-&gt;D-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;C-&gt;D-&gt;A-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;C-&gt;D-&gt;F-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;D-&gt;C-&gt;A-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;F-&gt;D-&gt;A-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;C-&gt;A-&gt;D-&gt;F-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;F-&gt;D-&gt;C-&gt;A-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;D-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;D-&gt;A-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;F-&gt;D-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;D-&gt;B-&gt;A-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;F-&gt;B-&gt;A-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;F-&gt;B-&gt;D-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;F-&gt;D-&gt;A-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;D-&gt;F-&gt;B-&gt;A-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;F-&gt;B-&gt;A-&gt;D-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;F-&gt;B-&gt;D-&gt;A-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;F-&gt;D-&gt;B-&gt;A-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;C-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;F-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;C-&gt;A-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;F-&gt;B-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;C-&gt;A-&gt;B-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;F-&gt;B-&gt;A-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;C-&gt;A-&gt;B-&gt;F-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;F-&gt;B-&gt;A-&gt;C-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;D-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;C-&gt;D-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;D-&gt;B-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;C-&gt;A-&gt;B-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;C-&gt;A-&gt;D-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;C-&gt;D-&gt;B-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;D-&gt;A-&gt;B-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;C-&gt;A-&gt;B-&gt;D-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;C-&gt;A-&gt;D-&gt;B-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;C-&gt;D-&gt;A-&gt;B-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>E-&gt;D-&gt;C-&gt;A-&gt;B-&gt;F-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;B-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;D-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;B-&gt;D-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;D-&gt;B-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;D-&gt;C-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;E-&gt;C-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;E-&gt;D-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;B-&gt;D-&gt;C-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;D-&gt;E-&gt;C-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;E-&gt;C-&gt;D-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;E-&gt;D-&gt;B-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;E-&gt;D-&gt;C-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;B-&gt;D-&gt;E-&gt;C-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;E-&gt;C-&gt;D-&gt;B-&gt;A-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;D-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;D-&gt;A-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;E-&gt;D-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;D-&gt;C-&gt;A-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;E-&gt;C-&gt;A-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;E-&gt;C-&gt;D-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;E-&gt;D-&gt;A-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;D-&gt;E-&gt;C-&gt;A-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;E-&gt;C-&gt;A-&gt;D-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;E-&gt;C-&gt;D-&gt;A-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;E-&gt;D-&gt;C-&gt;A-&gt;B-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;D-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;E-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;B-&gt;A-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;B-&gt;D-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;D-&gt;A-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;D-&gt;E-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;E-&gt;D-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;B-&gt;A-&gt;D-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;B-&gt;D-&gt;A-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;B-&gt;D-&gt;E-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;D-&gt;B-&gt;A-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;E-&gt;D-&gt;A-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;B-&gt;A-&gt;D-&gt;E-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;E-&gt;D-&gt;B-&gt;A-&gt;C-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;B-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;E-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;B-&gt;A-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;E-&gt;C-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;B-&gt;A-&gt;C-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;E-&gt;C-&gt;A-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;B-&gt;A-&gt;C-&gt;E-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;E-&gt;C-&gt;A-&gt;B-&gt;D-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;D-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;B-&gt;D-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;D-&gt;C-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;B-&gt;A-&gt;C-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;B-&gt;A-&gt;D-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;B-&gt;D-&gt;C-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;D-&gt;A-&gt;C-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;B-&gt;A-&gt;C-&gt;D-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;B-&gt;A-&gt;D-&gt;C-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;B-&gt;D-&gt;A-&gt;C-&gt;E-&gt;</t>
-  </si>
-  <si>
-    <t>F-&gt;D-&gt;B-&gt;A-&gt;C-&gt;E-&gt;</t>
+    <t xml:space="preserve">A -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; D -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; C -&gt; D -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; D -&gt; F -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; C -&gt; D -&gt; F -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; C -&gt; E -&gt; D -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; C -&gt; E -&gt; F -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; D -&gt; E -&gt; F -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; C -&gt; D -&gt; E -&gt; F -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; C -&gt; E -&gt; D -&gt; F -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; C -&gt; E -&gt; F -&gt; D -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; D -&gt; C -&gt; E -&gt; F -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; D -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; B -&gt; D -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; D -&gt; E -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; B -&gt; D -&gt; E -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; B -&gt; F -&gt; D -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; B -&gt; F -&gt; E -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; D -&gt; F -&gt; E -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; B -&gt; D -&gt; F -&gt; E -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; B -&gt; F -&gt; D -&gt; E -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; B -&gt; F -&gt; E -&gt; D -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; D -&gt; B -&gt; F -&gt; E -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; B -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; C -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; B -&gt; F -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; C -&gt; E -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; B -&gt; F -&gt; E -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; C -&gt; E -&gt; F -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; B -&gt; F -&gt; E -&gt; C -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; C -&gt; E -&gt; F -&gt; B -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; C -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; D -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; B -&gt; D -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; B -&gt; F -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; C -&gt; D -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; D -&gt; C -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; D -&gt; F -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; B -&gt; D -&gt; C -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; B -&gt; D -&gt; F -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; B -&gt; F -&gt; D -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; C -&gt; D -&gt; F -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; D -&gt; B -&gt; F -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; B -&gt; F -&gt; D -&gt; C -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; C -&gt; D -&gt; B -&gt; F -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; B -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; D -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; B -&gt; D -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; C -&gt; D -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; C -&gt; E -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; D -&gt; B -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; D -&gt; E -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; B -&gt; D -&gt; E -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; C -&gt; D -&gt; B -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; C -&gt; D -&gt; E -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; C -&gt; E -&gt; D -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; D -&gt; C -&gt; E -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; B -&gt; D -&gt; C -&gt; E -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A -&gt; C -&gt; E -&gt; D -&gt; B -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; D -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; D -&gt; C -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; F -&gt; D -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; D -&gt; E -&gt; C -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; F -&gt; D -&gt; C -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; F -&gt; E -&gt; C -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; F -&gt; E -&gt; D -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; D -&gt; F -&gt; E -&gt; C -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; F -&gt; D -&gt; E -&gt; C -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; F -&gt; E -&gt; C -&gt; D -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; F -&gt; E -&gt; D -&gt; C -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; A -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; D -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; A -&gt; D -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; D -&gt; A -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; D -&gt; E -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; F -&gt; D -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; F -&gt; E -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; A -&gt; D -&gt; E -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; D -&gt; F -&gt; E -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; F -&gt; D -&gt; A -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; F -&gt; D -&gt; E -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; F -&gt; E -&gt; D -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; A -&gt; D -&gt; F -&gt; E -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; F -&gt; E -&gt; D -&gt; A -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; A -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; F -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; A -&gt; C -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; F -&gt; E -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; A -&gt; C -&gt; E -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; F -&gt; E -&gt; C -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; A -&gt; C -&gt; E -&gt; F -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; F -&gt; E -&gt; C -&gt; A -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; D -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; F -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; A -&gt; C -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; A -&gt; D -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; D -&gt; C -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; D -&gt; F -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; F -&gt; D -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; A -&gt; C -&gt; D -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; A -&gt; D -&gt; C -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; A -&gt; D -&gt; F -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; D -&gt; A -&gt; C -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; F -&gt; D -&gt; C -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; A -&gt; C -&gt; D -&gt; F -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; F -&gt; D -&gt; A -&gt; C -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; D -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; A -&gt; D -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; D -&gt; E -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; A -&gt; C -&gt; D -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; A -&gt; C -&gt; E -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; A -&gt; D -&gt; E -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; D -&gt; C -&gt; E -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; A -&gt; C -&gt; D -&gt; E -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; A -&gt; C -&gt; E -&gt; D -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; A -&gt; D -&gt; C -&gt; E -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B -&gt; D -&gt; A -&gt; C -&gt; E -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; D -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; D -&gt; B -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; E -&gt; D -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; D -&gt; F -&gt; B -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; E -&gt; D -&gt; B -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; E -&gt; F -&gt; B -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; E -&gt; F -&gt; D -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; D -&gt; E -&gt; F -&gt; B -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; E -&gt; D -&gt; F -&gt; B -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; E -&gt; F -&gt; B -&gt; D -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; E -&gt; F -&gt; D -&gt; B -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; A -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; D -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; A -&gt; D -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; D -&gt; A -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; D -&gt; F -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; E -&gt; D -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; E -&gt; F -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; A -&gt; D -&gt; F -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; D -&gt; E -&gt; F -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; E -&gt; D -&gt; A -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; E -&gt; D -&gt; F -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; E -&gt; F -&gt; D -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; A -&gt; D -&gt; E -&gt; F -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; E -&gt; F -&gt; D -&gt; A -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; A -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; E -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; A -&gt; B -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; E -&gt; F -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; A -&gt; B -&gt; F -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; E -&gt; F -&gt; B -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; A -&gt; B -&gt; F -&gt; E -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; E -&gt; F -&gt; B -&gt; A -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; D -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; A -&gt; D -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; D -&gt; F -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; A -&gt; B -&gt; D -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; A -&gt; B -&gt; F -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; A -&gt; D -&gt; F -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; D -&gt; B -&gt; F -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; A -&gt; B -&gt; D -&gt; F -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; A -&gt; B -&gt; F -&gt; D -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; A -&gt; D -&gt; B -&gt; F -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; D -&gt; A -&gt; B -&gt; F -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; D -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; E -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; A -&gt; B -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; A -&gt; D -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; D -&gt; B -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; D -&gt; E -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; E -&gt; D -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; A -&gt; B -&gt; D -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; A -&gt; D -&gt; B -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; A -&gt; D -&gt; E -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; D -&gt; A -&gt; B -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; E -&gt; D -&gt; B -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; A -&gt; B -&gt; D -&gt; E -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C -&gt; E -&gt; D -&gt; A -&gt; B -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; B -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; C -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; E -&gt; C -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; F -&gt; B -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; E -&gt; F -&gt; B -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; F -&gt; E -&gt; C -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; B -&gt; F -&gt; E -&gt; C -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; C -&gt; E -&gt; F -&gt; B -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; A -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; F -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; C -&gt; A -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; E -&gt; F -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; C -&gt; E -&gt; F -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; E -&gt; C -&gt; A -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; A -&gt; C -&gt; E -&gt; F -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; F -&gt; E -&gt; C -&gt; A -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; A -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; E -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; B -&gt; A -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; F -&gt; E -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; B -&gt; F -&gt; E -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; F -&gt; B -&gt; A -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; A -&gt; B -&gt; F -&gt; E -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; E -&gt; F -&gt; B -&gt; A -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; C -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; F -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; A -&gt; C -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; B -&gt; F -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; A -&gt; B -&gt; F -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; B -&gt; A -&gt; C -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; C -&gt; A -&gt; B -&gt; F -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; F -&gt; B -&gt; A -&gt; C -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; B -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; E -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; A -&gt; B -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; C -&gt; E -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; A -&gt; C -&gt; E -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; C -&gt; A -&gt; B -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; B -&gt; A -&gt; C -&gt; E -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D -&gt; E -&gt; C -&gt; A -&gt; B -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; C -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; D -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; C -&gt; D -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; D -&gt; B -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; D -&gt; C -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; F -&gt; B -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; F -&gt; D -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; C -&gt; D -&gt; B -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; D -&gt; F -&gt; B -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; F -&gt; B -&gt; D -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; F -&gt; D -&gt; B -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; F -&gt; D -&gt; C -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; C -&gt; D -&gt; F -&gt; B -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; F -&gt; B -&gt; D -&gt; C -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; D -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; F -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; C -&gt; A -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; C -&gt; D -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; D -&gt; A -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; D -&gt; F -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; F -&gt; D -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; C -&gt; A -&gt; D -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; C -&gt; D -&gt; A -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; C -&gt; D -&gt; F -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; D -&gt; C -&gt; A -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; F -&gt; D -&gt; A -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; C -&gt; A -&gt; D -&gt; F -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; F -&gt; D -&gt; C -&gt; A -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; D -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; D -&gt; A -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; F -&gt; D -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; D -&gt; B -&gt; A -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; F -&gt; B -&gt; A -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; F -&gt; B -&gt; D -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; F -&gt; D -&gt; A -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; D -&gt; F -&gt; B -&gt; A -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; F -&gt; B -&gt; A -&gt; D -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; F -&gt; B -&gt; D -&gt; A -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; F -&gt; D -&gt; B -&gt; A -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; C -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; F -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; C -&gt; A -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; F -&gt; B -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; C -&gt; A -&gt; B -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; F -&gt; B -&gt; A -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; C -&gt; A -&gt; B -&gt; F -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; F -&gt; B -&gt; A -&gt; C -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; D -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; C -&gt; D -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; D -&gt; B -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; C -&gt; A -&gt; B -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; C -&gt; A -&gt; D -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; C -&gt; D -&gt; B -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; D -&gt; A -&gt; B -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; C -&gt; A -&gt; B -&gt; D -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; C -&gt; A -&gt; D -&gt; B -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; C -&gt; D -&gt; A -&gt; B -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E -&gt; D -&gt; C -&gt; A -&gt; B -&gt; F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; B -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; D -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; B -&gt; D -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; D -&gt; B -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; D -&gt; C -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; E -&gt; C -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; E -&gt; D -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; B -&gt; D -&gt; C -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; D -&gt; E -&gt; C -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; E -&gt; C -&gt; D -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; E -&gt; D -&gt; B -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; E -&gt; D -&gt; C -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; B -&gt; D -&gt; E -&gt; C -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; E -&gt; C -&gt; D -&gt; B -&gt; A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; D -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; D -&gt; A -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; E -&gt; D -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; D -&gt; C -&gt; A -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; E -&gt; C -&gt; A -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; E -&gt; C -&gt; D -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; E -&gt; D -&gt; A -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; D -&gt; E -&gt; C -&gt; A -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; E -&gt; C -&gt; A -&gt; D -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; E -&gt; C -&gt; D -&gt; A -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; E -&gt; D -&gt; C -&gt; A -&gt; B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; D -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; E -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; B -&gt; A -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; B -&gt; D -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; D -&gt; A -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; D -&gt; E -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; E -&gt; D -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; B -&gt; A -&gt; D -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; B -&gt; D -&gt; A -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; B -&gt; D -&gt; E -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; D -&gt; B -&gt; A -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; E -&gt; D -&gt; A -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; B -&gt; A -&gt; D -&gt; E -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; E -&gt; D -&gt; B -&gt; A -&gt; C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; B -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; E -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; B -&gt; A -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; E -&gt; C -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; B -&gt; A -&gt; C -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; E -&gt; C -&gt; A -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; B -&gt; A -&gt; C -&gt; E -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; E -&gt; C -&gt; A -&gt; B -&gt; D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; D -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; B -&gt; D -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; D -&gt; C -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; B -&gt; A -&gt; C -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; B -&gt; A -&gt; D -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; B -&gt; D -&gt; C -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; D -&gt; A -&gt; C -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; B -&gt; A -&gt; C -&gt; D -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; B -&gt; A -&gt; D -&gt; C -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; B -&gt; D -&gt; A -&gt; C -&gt; E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -&gt; D -&gt; B -&gt; A -&gt; C -&gt; E </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1147,23 +1141,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1205,7 +1191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1237,27 +1223,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1289,24 +1257,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1482,18 +1432,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1507,7 +1453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1515,16 +1461,16 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>1.7677669529663691E-4</v>
+        <v>0.0001767766952966369</v>
       </c>
       <c r="D2">
-        <v>3.5355339059327379E-7</v>
+        <v>3.535533905932738E-07</v>
       </c>
       <c r="E2">
-        <v>34.515449934959719</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34.51544993495972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1532,16 +1478,16 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>3.9654960892748081E-4</v>
+        <v>0.0003965496089274808</v>
       </c>
       <c r="D3">
-        <v>7.9309921785496149E-7</v>
+        <v>7.930992178549615E-07</v>
       </c>
       <c r="E3">
-        <v>31.006724784182001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.006724784182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1549,16 +1495,16 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>6.2360366956671102E-4</v>
+        <v>0.000623603669566711</v>
       </c>
       <c r="D4">
-        <v>1.247207339133422E-6</v>
+        <v>1.247207339133422E-06</v>
       </c>
       <c r="E4">
-        <v>29.040613422260709</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.04061342226071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1566,16 +1512,16 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>5.9925066317720235E-4</v>
+        <v>0.0005992506631772023</v>
       </c>
       <c r="D5">
-        <v>1.1985013263544049E-6</v>
+        <v>1.198501326354405E-06</v>
       </c>
       <c r="E5">
-        <v>29.213614810061468</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.21361481006147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1583,16 +1529,16 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>8.263047238164325E-4</v>
+        <v>0.0008263047238164325</v>
       </c>
       <c r="D6">
-        <v>1.652609447632865E-6</v>
+        <v>1.652609447632865E-06</v>
       </c>
       <c r="E6">
-        <v>27.818297687990519</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.81829768799052</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1600,16 +1546,16 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>8.1049712873674617E-4</v>
+        <v>0.0008104971287367462</v>
       </c>
       <c r="D7">
-        <v>1.6209942574734921E-6</v>
+        <v>1.620994257473492E-06</v>
       </c>
       <c r="E7">
-        <v>27.902185236783151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.90218523678315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1617,16 +1563,16 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>9.3678053536352815E-4</v>
+        <v>0.0009367805353635282</v>
       </c>
       <c r="D8">
-        <v>1.873561070727057E-6</v>
+        <v>1.873561070727057E-06</v>
       </c>
       <c r="E8">
-        <v>27.273321460463009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.27332146046301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1634,16 +1580,16 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>9.0362167084745816E-4</v>
+        <v>0.0009036216708474582</v>
       </c>
       <c r="D9">
-        <v>1.807243341694916E-6</v>
+        <v>1.807243341694916E-06</v>
       </c>
       <c r="E9">
-        <v>27.429833666199929</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.42983366619993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1651,16 +1597,16 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>1.1306757314866881E-3</v>
+        <v>0.001130675731486688</v>
       </c>
       <c r="D10">
-        <v>2.2613514629733772E-6</v>
+        <v>2.261351462973377E-06</v>
       </c>
       <c r="E10">
-        <v>26.456319336441769</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.45631933644177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1668,16 +1614,16 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>1.0131981829864681E-3</v>
+        <v>0.001013198182986468</v>
       </c>
       <c r="D11">
-        <v>2.026396365972936E-6</v>
+        <v>2.026396365972936E-06</v>
       </c>
       <c r="E11">
         <v>26.93275602056492</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1685,16 +1631,16 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>1.124591964909139E-3</v>
+        <v>0.001124591964909139</v>
       </c>
       <c r="D12">
-        <v>2.2491839298182792E-6</v>
+        <v>2.249183929818279E-06</v>
       </c>
       <c r="E12">
         <v>26.47975028139772</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1702,16 +1648,16 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>1.070281602270697E-3</v>
+        <v>0.001070281602270697</v>
       </c>
       <c r="D13">
-        <v>2.1405632045413941E-6</v>
+        <v>2.140563204541394E-06</v>
       </c>
       <c r="E13">
-        <v>26.694719442004711</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.69471944200471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1719,16 +1665,16 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>2.3717082451262851E-4</v>
+        <v>0.0002371708245126285</v>
       </c>
       <c r="D14">
-        <v>4.7434164902525688E-7</v>
+        <v>4.743416490252569E-07</v>
       </c>
       <c r="E14">
-        <v>33.239087409443187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33.23908740944319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1736,16 +1682,16 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>3.7067189141979718E-4</v>
+        <v>0.0003706718914197972</v>
       </c>
       <c r="D15">
-        <v>7.4134378283959441E-7</v>
+        <v>7.413437828395944E-07</v>
       </c>
       <c r="E15">
-        <v>31.299803502301589</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.29980350230159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1753,16 +1699,16 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>5.6320954035071942E-4</v>
+        <v>0.0005632095403507194</v>
       </c>
       <c r="D16">
-        <v>1.1264190807014391E-6</v>
+        <v>1.126419080701439E-06</v>
       </c>
       <c r="E16">
-        <v>29.483000015141432</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.48300001514143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1770,16 +1716,16 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>5.5756535058983222E-4</v>
+        <v>0.0005575653505898322</v>
       </c>
       <c r="D17">
-        <v>1.115130701179665E-6</v>
+        <v>1.115130701179665E-06</v>
       </c>
       <c r="E17">
-        <v>29.526742272575461</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.52674227257546</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1787,16 +1733,16 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>7.5010299952075457E-4</v>
+        <v>0.0007501029995207546</v>
       </c>
       <c r="D18">
-        <v>1.500205999041509E-6</v>
+        <v>1.500205999041509E-06</v>
       </c>
       <c r="E18">
         <v>28.23849102208062</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1804,16 +1750,16 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>7.65910594600441E-4</v>
+        <v>0.000765910594600441</v>
       </c>
       <c r="D19">
-        <v>1.5318211892008819E-6</v>
+        <v>1.531821189200882E-06</v>
       </c>
       <c r="E19">
         <v>28.14791927311536</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1821,16 +1767,16 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>8.7638640614753666E-4</v>
+        <v>0.0008763864061475367</v>
       </c>
       <c r="D20">
-        <v>1.7527728122950731E-6</v>
+        <v>1.752772812295073E-06</v>
       </c>
       <c r="E20">
         <v>27.56274371847282</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1838,16 +1784,16 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>8.7166018676222549E-4</v>
+        <v>0.0008716601867622255</v>
       </c>
       <c r="D21">
-        <v>1.743320373524451E-6</v>
+        <v>1.743320373524451E-06</v>
       </c>
       <c r="E21">
-        <v>27.586227943769028</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.58622794376903</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1855,16 +1801,16 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>1.0641978356931479E-3</v>
+        <v>0.001064197835693148</v>
       </c>
       <c r="D22">
-        <v>2.128395671386296E-6</v>
+        <v>2.128395671386296E-06</v>
       </c>
       <c r="E22">
         <v>26.71947632990577</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1872,16 +1818,16 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>9.5280405377047605E-4</v>
+        <v>0.000952804053770476</v>
       </c>
       <c r="D23">
-        <v>1.905608107540952E-6</v>
+        <v>1.905608107540952E-06</v>
       </c>
       <c r="E23">
         <v>27.19966408121579</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1889,16 +1835,16 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>1.070281602270697E-3</v>
+        <v>0.001070281602270697</v>
       </c>
       <c r="D24">
-        <v>2.1405632045413941E-6</v>
+        <v>2.140563204541394E-06</v>
       </c>
       <c r="E24">
-        <v>26.694719442004711</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.69471944200471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1906,16 +1852,16 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>1.0961593197783811E-3</v>
+        <v>0.001096159319778381</v>
       </c>
       <c r="D25">
-        <v>2.1923186395567608E-6</v>
+        <v>2.192318639556761E-06</v>
       </c>
       <c r="E25">
         <v>26.5909632366205</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1923,16 +1869,16 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>1.9039432764659771E-4</v>
+        <v>0.0001903943276465977</v>
       </c>
       <c r="D26">
-        <v>3.8078865529319537E-7</v>
+        <v>3.807886552931954E-07</v>
       </c>
       <c r="E26">
-        <v>34.193159988825123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34.19315998882512</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1940,16 +1886,16 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>3.8293197657752001E-4</v>
+        <v>0.00038293197657752</v>
       </c>
       <c r="D27">
-        <v>7.6586395315504001E-7</v>
+        <v>7.6586395315504E-07</v>
       </c>
       <c r="E27">
-        <v>31.158483708916311</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.15848370891631</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1957,16 +1903,16 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>4.1744838828582792E-4</v>
+        <v>0.0004174483882858279</v>
       </c>
       <c r="D28">
-        <v>8.3489677657165597E-7</v>
+        <v>8.34896776571656E-07</v>
       </c>
       <c r="E28">
         <v>30.78367215697816</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1974,16 +1920,16 @@
         <v>31</v>
       </c>
       <c r="C29">
-        <v>5.8563303082724148E-4</v>
+        <v>0.0005856330308272415</v>
       </c>
       <c r="D29">
-        <v>1.171266061654483E-6</v>
+        <v>1.171266061654483E-06</v>
       </c>
       <c r="E29">
         <v>29.31344440552332</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1991,16 +1937,16 @@
         <v>32</v>
       </c>
       <c r="C30">
-        <v>6.0434184745586307E-4</v>
+        <v>0.0006043418474558631</v>
       </c>
       <c r="D30">
-        <v>1.208683694911726E-6</v>
+        <v>1.208683694911726E-06</v>
       </c>
       <c r="E30">
         <v>29.17687336465325</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2008,16 +1954,16 @@
         <v>33</v>
       </c>
       <c r="C31">
-        <v>8.9000403849749741E-4</v>
+        <v>0.0008900040384974974</v>
       </c>
       <c r="D31">
-        <v>1.780008076994995E-6</v>
+        <v>1.780008076994995E-06</v>
       </c>
       <c r="E31">
-        <v>27.495780270245898</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.4957802702459</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2025,16 +1971,16 @@
         <v>34</v>
       </c>
       <c r="C32">
-        <v>9.1843668362825634E-4</v>
+        <v>0.0009184366836282563</v>
       </c>
       <c r="D32">
-        <v>1.8368733672565129E-6</v>
+        <v>1.836873367256513E-06</v>
       </c>
       <c r="E32">
-        <v>27.359207826149159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.35920782614916</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2042,16 +1988,16 @@
         <v>35</v>
       </c>
       <c r="C33">
-        <v>1.056663969920736E-3</v>
+        <v>0.001056663969920736</v>
       </c>
       <c r="D33">
-        <v>2.1133279398414721E-6</v>
+        <v>2.113327939841472E-06</v>
       </c>
       <c r="E33">
         <v>26.7503310521336</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2059,16 +2005,16 @@
         <v>36</v>
       </c>
       <c r="C34">
-        <v>1.142935816644411E-3</v>
+        <v>0.001142935816644411</v>
       </c>
       <c r="D34">
-        <v>2.2858716332888229E-6</v>
+        <v>2.285871633288823E-06</v>
       </c>
       <c r="E34">
-        <v>26.409481617446001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.409481617446</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2076,16 +2022,16 @@
         <v>37</v>
       </c>
       <c r="C35">
-        <v>4.1394751980926541E-4</v>
+        <v>0.0004139475198092654</v>
       </c>
       <c r="D35">
-        <v>8.2789503961853083E-7</v>
+        <v>8.278950396185308E-07</v>
       </c>
       <c r="E35">
         <v>30.82024719500042</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2093,16 +2039,16 @@
         <v>38</v>
       </c>
       <c r="C36">
-        <v>3.8078865529319543E-4</v>
+        <v>0.0003807886552931954</v>
       </c>
       <c r="D36">
-        <v>7.6157731058639085E-7</v>
+        <v>7.615773105863909E-07</v>
       </c>
       <c r="E36">
-        <v>31.182860032185321</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.18286003218532</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2110,16 +2056,16 @@
         <v>39</v>
       </c>
       <c r="C37">
-        <v>5.7332630422411766E-4</v>
+        <v>0.0005733263042241177</v>
       </c>
       <c r="D37">
-        <v>1.146652608448235E-6</v>
+        <v>1.146652608448235E-06</v>
       </c>
       <c r="E37">
-        <v>29.405681366633502</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.4056813666335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2127,16 +2073,16 @@
         <v>40</v>
       </c>
       <c r="C38">
-        <v>6.9960971085089975E-4</v>
+        <v>0.0006996097108508998</v>
       </c>
       <c r="D38">
-        <v>1.3992194217018E-6</v>
+        <v>1.3992194217018E-06</v>
       </c>
       <c r="E38">
         <v>28.54114175313698</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2144,16 +2090,16 @@
         <v>41</v>
       </c>
       <c r="C39">
-        <v>6.0784271593242558E-4</v>
+        <v>0.0006078427159324256</v>
       </c>
       <c r="D39">
-        <v>1.215685431864851E-6</v>
+        <v>1.215685431864851E-06</v>
       </c>
       <c r="E39">
-        <v>29.151787876281531</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.15178787628153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2161,16 +2107,16 @@
         <v>42</v>
       </c>
       <c r="C40">
-        <v>5.4744858671643408E-4</v>
+        <v>0.0005474485867164341</v>
       </c>
       <c r="D40">
-        <v>1.094897173432868E-6</v>
+        <v>1.094897173432868E-06</v>
       </c>
       <c r="E40">
-        <v>29.606266653970131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.60626665397013</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2178,16 +2124,16 @@
         <v>43</v>
       </c>
       <c r="C41">
-        <v>6.9488349146558858E-4</v>
+        <v>0.0006948834914655886</v>
       </c>
       <c r="D41">
-        <v>1.3897669829311771E-6</v>
+        <v>1.389766982931177E-06</v>
       </c>
       <c r="E41">
-        <v>28.570580101850801</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.5705801018508</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2195,16 +2141,16 @@
         <v>44</v>
       </c>
       <c r="C42">
-        <v>7.3998623564735632E-4</v>
+        <v>0.0007399862356473563</v>
       </c>
       <c r="D42">
-        <v>1.479972471294713E-6</v>
+        <v>1.479972471294713E-06</v>
       </c>
       <c r="E42">
-        <v>28.297463627644959</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.29746362764496</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2212,16 +2158,16 @@
         <v>45</v>
       </c>
       <c r="C43">
-        <v>8.8742114039651093E-4</v>
+        <v>0.0008874211403965109</v>
       </c>
       <c r="D43">
-        <v>1.7748422807930221E-6</v>
+        <v>1.774842280793022E-06</v>
       </c>
       <c r="E43">
-        <v>27.508402339467029</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.50840233946703</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2229,16 +2175,16 @@
         <v>46</v>
       </c>
       <c r="C44">
-        <v>7.7602735847383914E-4</v>
+        <v>0.0007760273584738391</v>
       </c>
       <c r="D44">
-        <v>1.5520547169476791E-6</v>
+        <v>1.552054716947679E-06</v>
       </c>
       <c r="E44">
         <v>28.09092971963425</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2246,16 +2192,16 @@
         <v>47</v>
       </c>
       <c r="C45">
-        <v>9.2193755210481885E-4</v>
+        <v>0.0009219375521048188</v>
       </c>
       <c r="D45">
-        <v>1.8438751042096381E-6</v>
+        <v>1.843875104209638E-06</v>
       </c>
       <c r="E45">
-        <v>27.342684994372512</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.34268499437251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2263,16 +2209,16 @@
         <v>48</v>
       </c>
       <c r="C46">
-        <v>9.1938262448174361E-4</v>
+        <v>0.0009193826244817436</v>
       </c>
       <c r="D46">
-        <v>1.8387652489634871E-6</v>
+        <v>1.838765248963487E-06</v>
       </c>
       <c r="E46">
-        <v>27.354737126256719</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.35473712625672</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2280,16 +2226,16 @@
         <v>49</v>
       </c>
       <c r="C47">
-        <v>9.4268728989707791E-4</v>
+        <v>0.0009426872898970779</v>
       </c>
       <c r="D47">
-        <v>1.8853745797941561E-6</v>
+        <v>1.885374579794156E-06</v>
       </c>
       <c r="E47">
         <v>27.24602352738605</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2297,16 +2243,16 @@
         <v>50</v>
       </c>
       <c r="C48">
-        <v>1.1464366851209741E-3</v>
+        <v>0.001146436685120974</v>
       </c>
       <c r="D48">
-        <v>2.292873370241948E-6</v>
+        <v>2.292873370241948E-06</v>
       </c>
       <c r="E48">
         <v>26.39619929624072</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2314,16 +2260,16 @@
         <v>51</v>
       </c>
       <c r="C49">
-        <v>3.9037678892957521E-4</v>
+        <v>0.0003903767889295752</v>
       </c>
       <c r="D49">
-        <v>7.8075357785915045E-7</v>
+        <v>7.807535778591504E-07</v>
       </c>
       <c r="E49">
-        <v>31.074860169076569</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.07486016907657</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2331,16 +2277,16 @@
         <v>52</v>
       </c>
       <c r="C50">
-        <v>3.8565056954426399E-4</v>
+        <v>0.000385650569544264</v>
       </c>
       <c r="D50">
-        <v>7.7130113908852821E-7</v>
+        <v>7.713011390885282E-07</v>
       </c>
       <c r="E50">
-        <v>31.127760272534541</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.12776027253454</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2348,16 +2294,16 @@
         <v>53</v>
       </c>
       <c r="C51">
-        <v>5.7818821847518639E-4</v>
+        <v>0.0005781882184751864</v>
       </c>
       <c r="D51">
-        <v>1.156376436950373E-6</v>
+        <v>1.156376436950373E-06</v>
       </c>
       <c r="E51">
         <v>29.36900766367248</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2365,16 +2311,16 @@
         <v>54</v>
       </c>
       <c r="C52">
-        <v>6.127046301834943E-4</v>
+        <v>0.0006127046301834943</v>
       </c>
       <c r="D52">
-        <v>1.225409260366989E-6</v>
+        <v>1.225409260366989E-06</v>
       </c>
       <c r="E52">
         <v>29.11718842046265</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2382,16 +2328,16 @@
         <v>55</v>
       </c>
       <c r="C53">
-        <v>7.2318044173058996E-4</v>
+        <v>0.00072318044173059</v>
       </c>
       <c r="D53">
-        <v>1.4463608834611799E-6</v>
+        <v>1.44636088346118E-06</v>
       </c>
       <c r="E53">
-        <v>28.397233321166919</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.39723332116692</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2399,16 +2345,16 @@
         <v>56</v>
       </c>
       <c r="C54">
-        <v>6.1014970256041906E-4</v>
+        <v>0.0006101497025604191</v>
       </c>
       <c r="D54">
-        <v>1.220299405120838E-6</v>
+        <v>1.220299405120838E-06</v>
       </c>
       <c r="E54">
-        <v>29.135336004409481</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.13533600440948</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2416,16 +2362,16 @@
         <v>57</v>
       </c>
       <c r="C55">
-        <v>6.9002157721451997E-4</v>
+        <v>0.00069002157721452</v>
       </c>
       <c r="D55">
-        <v>1.3800431544290399E-6</v>
+        <v>1.38004315442904E-06</v>
       </c>
       <c r="E55">
         <v>28.60107332847047</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2433,16 +2379,16 @@
         <v>58</v>
       </c>
       <c r="C56">
-        <v>8.8255922614544221E-4</v>
+        <v>0.0008825592261454422</v>
       </c>
       <c r="D56">
-        <v>1.7651184522908849E-6</v>
+        <v>1.765118452290885E-06</v>
       </c>
       <c r="E56">
-        <v>27.532261449786201</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.5322614497862</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2450,16 +2396,16 @@
         <v>59</v>
       </c>
       <c r="C57">
-        <v>8.3720376319964922E-4</v>
+        <v>0.0008372037631996492</v>
       </c>
       <c r="D57">
-        <v>1.6744075263992989E-6</v>
+        <v>1.674407526399299E-06</v>
       </c>
       <c r="E57">
         <v>27.76138832527506</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2467,16 +2413,16 @@
         <v>60</v>
       </c>
       <c r="C58">
-        <v>9.1707563785375012E-4</v>
+        <v>0.0009170756378537501</v>
       </c>
       <c r="D58">
-        <v>1.8341512757075001E-6</v>
+        <v>1.8341512757075E-06</v>
       </c>
       <c r="E58">
         <v>27.36564847785062</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2484,16 +2430,16 @@
         <v>61</v>
       </c>
       <c r="C59">
-        <v>7.9959808935352946E-4</v>
+        <v>0.0007995980893535295</v>
       </c>
       <c r="D59">
-        <v>1.599196178707059E-6</v>
+        <v>1.599196178707059E-06</v>
       </c>
       <c r="E59">
-        <v>27.960982566390769</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.96098256639077</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2501,16 +2447,16 @@
         <v>62</v>
       </c>
       <c r="C60">
-        <v>8.5668150863775863E-4</v>
+        <v>0.0008566815086377586</v>
       </c>
       <c r="D60">
-        <v>1.7133630172755169E-6</v>
+        <v>1.713363017275517E-06</v>
       </c>
       <c r="E60">
-        <v>27.661506115255818</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.66150611525582</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2518,16 +2464,16 @@
         <v>63</v>
       </c>
       <c r="C61">
-        <v>1.0492191575686811E-3</v>
+        <v>0.001049219157568681</v>
       </c>
       <c r="D61">
-        <v>2.0984383151373619E-6</v>
+        <v>2.098438315137362E-06</v>
       </c>
       <c r="E61">
-        <v>26.781037926136548</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.78103792613655</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2535,16 +2481,16 @@
         <v>64</v>
       </c>
       <c r="C62">
-        <v>1.0240972223696839E-3</v>
+        <v>0.001024097222369684</v>
       </c>
       <c r="D62">
-        <v>2.048194444739369E-6</v>
+        <v>2.048194444739369E-06</v>
       </c>
       <c r="E62">
-        <v>26.886288161196571</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.88628816119657</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2552,16 +2498,16 @@
         <v>65</v>
       </c>
       <c r="C63">
-        <v>1.7677669529663691E-4</v>
+        <v>0.0001767766952966369</v>
       </c>
       <c r="D63">
-        <v>3.5355339059327379E-7</v>
+        <v>3.535533905932738E-07</v>
       </c>
       <c r="E63">
-        <v>34.515449934959719</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34.51544993495972</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2569,16 +2515,16 @@
         <v>66</v>
       </c>
       <c r="C64">
-        <v>3.9654960892748081E-4</v>
+        <v>0.0003965496089274808</v>
       </c>
       <c r="D64">
-        <v>7.9309921785496149E-7</v>
+        <v>7.930992178549615E-07</v>
       </c>
       <c r="E64">
-        <v>31.006724784182001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.006724784182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2586,16 +2532,16 @@
         <v>67</v>
       </c>
       <c r="C65">
-        <v>6.2360366956671102E-4</v>
+        <v>0.000623603669566711</v>
       </c>
       <c r="D65">
-        <v>1.247207339133422E-6</v>
+        <v>1.247207339133422E-06</v>
       </c>
       <c r="E65">
-        <v>29.040613422260709</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.04061342226071</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2603,16 +2549,16 @@
         <v>68</v>
       </c>
       <c r="C66">
-        <v>5.9925066317720235E-4</v>
+        <v>0.0005992506631772023</v>
       </c>
       <c r="D66">
-        <v>1.1985013263544049E-6</v>
+        <v>1.198501326354405E-06</v>
       </c>
       <c r="E66">
-        <v>29.213614810061468</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.21361481006147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2620,16 +2566,16 @@
         <v>69</v>
       </c>
       <c r="C67">
-        <v>8.1049712873674617E-4</v>
+        <v>0.0008104971287367462</v>
       </c>
       <c r="D67">
-        <v>1.6209942574734921E-6</v>
+        <v>1.620994257473492E-06</v>
       </c>
       <c r="E67">
-        <v>27.902185236783151</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.90218523678315</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2637,16 +2583,16 @@
         <v>70</v>
       </c>
       <c r="C68">
-        <v>8.263047238164325E-4</v>
+        <v>0.0008263047238164325</v>
       </c>
       <c r="D68">
-        <v>1.652609447632865E-6</v>
+        <v>1.652609447632865E-06</v>
       </c>
       <c r="E68">
-        <v>27.818297687990519</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.81829768799052</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2654,16 +2600,16 @@
         <v>71</v>
       </c>
       <c r="C69">
-        <v>9.3678053536352815E-4</v>
+        <v>0.0009367805353635282</v>
       </c>
       <c r="D69">
-        <v>1.873561070727056E-6</v>
+        <v>1.873561070727056E-06</v>
       </c>
       <c r="E69">
-        <v>27.273321460463009</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.27332146046301</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2671,16 +2617,16 @@
         <v>72</v>
       </c>
       <c r="C70">
-        <v>9.0362167084745816E-4</v>
+        <v>0.0009036216708474582</v>
       </c>
       <c r="D70">
-        <v>1.8072433416949171E-6</v>
+        <v>1.807243341694917E-06</v>
       </c>
       <c r="E70">
-        <v>27.429833666199929</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.42983366619993</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2688,16 +2634,16 @@
         <v>73</v>
       </c>
       <c r="C71">
-        <v>1.124591964909139E-3</v>
+        <v>0.001124591964909139</v>
       </c>
       <c r="D71">
-        <v>2.2491839298182792E-6</v>
+        <v>2.249183929818279E-06</v>
       </c>
       <c r="E71">
         <v>26.47975028139772</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2705,16 +2651,16 @@
         <v>74</v>
       </c>
       <c r="C72">
-        <v>1.0131981829864681E-3</v>
+        <v>0.001013198182986468</v>
       </c>
       <c r="D72">
-        <v>2.026396365972936E-6</v>
+        <v>2.026396365972936E-06</v>
       </c>
       <c r="E72">
         <v>26.93275602056492</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2722,16 +2668,16 @@
         <v>75</v>
       </c>
       <c r="C73">
-        <v>1.070281602270697E-3</v>
+        <v>0.001070281602270697</v>
       </c>
       <c r="D73">
-        <v>2.1405632045413941E-6</v>
+        <v>2.140563204541394E-06</v>
       </c>
       <c r="E73">
-        <v>26.694719442004711</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.69471944200471</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2739,16 +2685,16 @@
         <v>76</v>
       </c>
       <c r="C74">
-        <v>1.1306757314866881E-3</v>
+        <v>0.001130675731486688</v>
       </c>
       <c r="D74">
-        <v>2.2613514629733772E-6</v>
+        <v>2.261351462973377E-06</v>
       </c>
       <c r="E74">
-        <v>26.456319336441769</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.45631933644177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2756,16 +2702,16 @@
         <v>77</v>
       </c>
       <c r="C75">
-        <v>4.1394751980926541E-4</v>
+        <v>0.0004139475198092654</v>
       </c>
       <c r="D75">
-        <v>8.2789503961853083E-7</v>
+        <v>8.278950396185308E-07</v>
       </c>
       <c r="E75">
         <v>30.82024719500042</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2773,16 +2719,16 @@
         <v>78</v>
       </c>
       <c r="C76">
-        <v>3.8643284505408251E-4</v>
+        <v>0.0003864328450540825</v>
       </c>
       <c r="D76">
-        <v>7.7286569010816515E-7</v>
+        <v>7.728656901081651E-07</v>
       </c>
       <c r="E76">
-        <v>31.118959719457649</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.11895971945765</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2790,16 +2736,16 @@
         <v>79</v>
       </c>
       <c r="C77">
-        <v>5.4744858671643398E-4</v>
+        <v>0.000547448586716434</v>
       </c>
       <c r="D77">
-        <v>1.094897173432868E-6</v>
+        <v>1.094897173432868E-06</v>
       </c>
       <c r="E77">
-        <v>29.606266653970131</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.60626665397013</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2807,16 +2753,16 @@
         <v>80</v>
       </c>
       <c r="C78">
-        <v>6.3372043344010927E-4</v>
+        <v>0.0006337204334401093</v>
       </c>
       <c r="D78">
-        <v>1.2674408668802179E-6</v>
+        <v>1.267440866880218E-06</v>
       </c>
       <c r="E78">
-        <v>28.970722937592761</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.97072293759276</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2824,16 +2770,16 @@
         <v>81</v>
       </c>
       <c r="C79">
-        <v>5.7332630422411766E-4</v>
+        <v>0.0005733263042241177</v>
       </c>
       <c r="D79">
-        <v>1.146652608448235E-6</v>
+        <v>1.146652608448235E-06</v>
       </c>
       <c r="E79">
-        <v>29.405681366633502</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.4056813666335</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2841,16 +2787,16 @@
         <v>82</v>
       </c>
       <c r="C80">
-        <v>5.891338993038041E-4</v>
+        <v>0.0005891338993038041</v>
       </c>
       <c r="D80">
-        <v>1.1782677986076079E-6</v>
+        <v>1.178267798607608E-06</v>
       </c>
       <c r="E80">
-        <v>29.287559911790311</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.28755991179031</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2858,16 +2804,16 @@
         <v>83</v>
       </c>
       <c r="C81">
-        <v>6.9960971085089975E-4</v>
+        <v>0.0006996097108508998</v>
       </c>
       <c r="D81">
-        <v>1.3992194217018E-6</v>
+        <v>1.3992194217018E-06</v>
       </c>
       <c r="E81">
         <v>28.54114175313698</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2875,16 +2821,16 @@
         <v>84</v>
       </c>
       <c r="C82">
-        <v>7.3434204588646913E-4</v>
+        <v>0.0007343420458864691</v>
       </c>
       <c r="D82">
-        <v>1.4686840917729379E-6</v>
+        <v>1.468684091772938E-06</v>
       </c>
       <c r="E82">
-        <v>28.330716092158941</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.33071609215894</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2892,16 +2838,16 @@
         <v>85</v>
       </c>
       <c r="C83">
-        <v>8.8742114039651082E-4</v>
+        <v>0.0008874211403965108</v>
       </c>
       <c r="D83">
-        <v>1.7748422807930221E-6</v>
+        <v>1.774842280793022E-06</v>
       </c>
       <c r="E83">
-        <v>27.508402339467029</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.50840233946703</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2909,16 +2855,16 @@
         <v>86</v>
       </c>
       <c r="C84">
-        <v>8.3642148768983075E-4</v>
+        <v>0.0008364214876898307</v>
       </c>
       <c r="D84">
-        <v>1.672842975379662E-6</v>
+        <v>1.672842975379662E-06</v>
       </c>
       <c r="E84">
         <v>27.76544823010504</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2926,16 +2872,16 @@
         <v>87</v>
       </c>
       <c r="C85">
-        <v>7.7602735847383925E-4</v>
+        <v>0.0007760273584738393</v>
       </c>
       <c r="D85">
-        <v>1.5520547169476791E-6</v>
+        <v>1.552054716947679E-06</v>
       </c>
       <c r="E85">
         <v>28.09092971963425</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2943,16 +2889,16 @@
         <v>88</v>
       </c>
       <c r="C86">
-        <v>8.9350490697405992E-4</v>
+        <v>0.0008935049069740599</v>
       </c>
       <c r="D86">
-        <v>1.7870098139481201E-6</v>
+        <v>1.78700981394812E-06</v>
       </c>
       <c r="E86">
         <v>27.47873062417797</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2960,16 +2906,16 @@
         <v>89</v>
       </c>
       <c r="C87">
-        <v>1.048436882058862E-3</v>
+        <v>0.001048436882058862</v>
       </c>
       <c r="D87">
-        <v>2.0968737641177252E-6</v>
+        <v>2.096873764117725E-06</v>
       </c>
       <c r="E87">
         <v>26.78427714120874</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2977,16 +2923,16 @@
         <v>90</v>
       </c>
       <c r="C88">
-        <v>1.140792495360087E-3</v>
+        <v>0.001140792495360087</v>
       </c>
       <c r="D88">
-        <v>2.281584990720174E-6</v>
+        <v>2.281584990720174E-06</v>
       </c>
       <c r="E88">
-        <v>26.417633488008999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.417633488009</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2994,16 +2940,16 @@
         <v>91</v>
       </c>
       <c r="C89">
-        <v>2.0615528128088299E-4</v>
+        <v>0.000206155281280883</v>
       </c>
       <c r="D89">
-        <v>4.1231056256176611E-7</v>
+        <v>4.123105625617661E-07</v>
       </c>
       <c r="E89">
-        <v>33.847755393108628</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33.84775539310863</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3011,16 +2957,16 @@
         <v>92</v>
       </c>
       <c r="C90">
-        <v>3.6717102294323462E-4</v>
+        <v>0.0003671710229432346</v>
       </c>
       <c r="D90">
-        <v>7.3434204588646927E-7</v>
+        <v>7.343420458864693E-07</v>
       </c>
       <c r="E90">
         <v>31.34101604879875</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3028,16 +2974,16 @@
         <v>93</v>
       </c>
       <c r="C91">
-        <v>4.0885633553060458E-4</v>
+        <v>0.0004088563355306046</v>
       </c>
       <c r="D91">
-        <v>8.1771267106120939E-7</v>
+        <v>8.177126710612094E-07</v>
       </c>
       <c r="E91">
-        <v>30.873992724823001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30.873992724823</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3045,16 +2991,16 @@
         <v>94</v>
       </c>
       <c r="C92">
-        <v>5.9422508358246483E-4</v>
+        <v>0.0005942250835824648</v>
       </c>
       <c r="D92">
-        <v>1.1884501671649299E-6</v>
+        <v>1.18845016716493E-06</v>
       </c>
       <c r="E92">
-        <v>29.250190239307688</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.25019023930769</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3062,16 +3008,16 @@
         <v>95</v>
       </c>
       <c r="C93">
-        <v>7.1322734320086051E-4</v>
+        <v>0.0007132273432008605</v>
       </c>
       <c r="D93">
-        <v>1.426454686401721E-6</v>
+        <v>1.426454686401721E-06</v>
       </c>
       <c r="E93">
-        <v>28.457420198416461</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.45742019841646</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3079,16 +3025,16 @@
         <v>96</v>
       </c>
       <c r="C94">
-        <v>7.8111854275249987E-4</v>
+        <v>0.0007811185427524999</v>
       </c>
       <c r="D94">
-        <v>1.562237085505E-6</v>
+        <v>1.562237085505E-06</v>
       </c>
       <c r="E94">
-        <v>28.062530568139209</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.06253056813921</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3096,16 +3042,16 @@
         <v>97</v>
       </c>
       <c r="C95">
-        <v>8.7988727462409927E-4</v>
+        <v>0.0008798872746240993</v>
       </c>
       <c r="D95">
-        <v>1.759774549248198E-6</v>
+        <v>1.759774549248198E-06</v>
       </c>
       <c r="E95">
         <v>27.54542967577386</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3113,16 +3059,16 @@
         <v>98</v>
       </c>
       <c r="C96">
-        <v>1.095213378924893E-3</v>
+        <v>0.001095213378924893</v>
       </c>
       <c r="D96">
-        <v>2.1904267578497869E-6</v>
+        <v>2.190426757849787E-06</v>
       </c>
       <c r="E96">
-        <v>26.594712639162889</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.59471263916289</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3130,16 +3076,16 @@
         <v>99</v>
       </c>
       <c r="C97">
-        <v>1.1271748630101259E-3</v>
+        <v>0.001127174863010126</v>
       </c>
       <c r="D97">
-        <v>2.2543497260202521E-6</v>
+        <v>2.254349726020252E-06</v>
       </c>
       <c r="E97">
-        <v>26.469787092752799</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.4697870927528</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3147,16 +3093,16 @@
         <v>100</v>
       </c>
       <c r="C98">
-        <v>3.9654960892748081E-4</v>
+        <v>0.0003965496089274808</v>
       </c>
       <c r="D98">
-        <v>7.9309921785496149E-7</v>
+        <v>7.930992178549615E-07</v>
       </c>
       <c r="E98">
-        <v>31.006724784182001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.006724784182</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3164,16 +3110,16 @@
         <v>101</v>
       </c>
       <c r="C99">
-        <v>5.2283301555426285E-4</v>
+        <v>0.0005228330155542628</v>
       </c>
       <c r="D99">
-        <v>1.045666031108526E-6</v>
+        <v>1.045666031108526E-06</v>
       </c>
       <c r="E99">
-        <v>29.806069999869901</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.8060699998699</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3181,16 +3127,16 @@
         <v>102</v>
       </c>
       <c r="C100">
-        <v>5.9072421510590221E-4</v>
+        <v>0.0005907242151059022</v>
       </c>
       <c r="D100">
-        <v>1.181448430211805E-6</v>
+        <v>1.181448430211805E-06</v>
       </c>
       <c r="E100">
-        <v>29.275852304118391</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.27585230411839</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3198,16 +3144,16 @@
         <v>103</v>
       </c>
       <c r="C101">
-        <v>5.5756535058983222E-4</v>
+        <v>0.0005575653505898322</v>
       </c>
       <c r="D101">
-        <v>1.115130701179665E-6</v>
+        <v>1.115130701179665E-06</v>
       </c>
       <c r="E101">
-        <v>29.526742272575461</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.52674227257546</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3215,16 +3161,16 @@
         <v>104</v>
       </c>
       <c r="C102">
-        <v>5.6320954035071942E-4</v>
+        <v>0.0005632095403507194</v>
       </c>
       <c r="D102">
-        <v>1.1264190807014391E-6</v>
+        <v>1.126419080701439E-06</v>
       </c>
       <c r="E102">
-        <v>29.483000015141432</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.48300001514143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3232,16 +3178,16 @@
         <v>105</v>
       </c>
       <c r="C103">
-        <v>7.1064444509987392E-4</v>
+        <v>0.0007106444450998739</v>
       </c>
       <c r="D103">
-        <v>1.4212888901997479E-6</v>
+        <v>1.421288890199748E-06</v>
       </c>
       <c r="E103">
         <v>28.47317638703101</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3249,16 +3195,16 @@
         <v>106</v>
       </c>
       <c r="C104">
-        <v>5.9925066317720235E-4</v>
+        <v>0.0005992506631772023</v>
       </c>
       <c r="D104">
-        <v>1.1985013263544049E-6</v>
+        <v>1.198501326354405E-06</v>
       </c>
       <c r="E104">
-        <v>29.213614810061468</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.21361481006147</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3266,16 +3212,16 @@
         <v>107</v>
       </c>
       <c r="C105">
-        <v>7.8461941122906248E-4</v>
+        <v>0.0007846194112290625</v>
       </c>
       <c r="D105">
-        <v>1.5692388224581249E-6</v>
+        <v>1.569238822458125E-06</v>
       </c>
       <c r="E105">
-        <v>28.043109561053509</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.04310956105351</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3283,16 +3229,16 @@
         <v>108</v>
       </c>
       <c r="C106">
-        <v>7.2422528201307088E-4</v>
+        <v>0.0007242252820130709</v>
       </c>
       <c r="D106">
-        <v>1.448450564026142E-6</v>
+        <v>1.448450564026142E-06</v>
       </c>
       <c r="E106">
-        <v>28.390963227847159</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.39096322784716</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3300,16 +3246,16 @@
         <v>109</v>
       </c>
       <c r="C107">
-        <v>8.7166018676222549E-4</v>
+        <v>0.0008716601867622255</v>
       </c>
       <c r="D107">
-        <v>1.743320373524451E-6</v>
+        <v>1.743320373524451E-06</v>
       </c>
       <c r="E107">
-        <v>27.586227943769028</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.58622794376903</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3317,16 +3263,16 @@
         <v>110</v>
       </c>
       <c r="C108">
-        <v>8.1049712873674617E-4</v>
+        <v>0.0008104971287367462</v>
       </c>
       <c r="D108">
-        <v>1.6209942574734921E-6</v>
+        <v>1.620994257473492E-06</v>
       </c>
       <c r="E108">
-        <v>27.902185236783151</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.90218523678315</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3334,16 +3280,16 @@
         <v>111</v>
       </c>
       <c r="C109">
-        <v>7.65910594600441E-4</v>
+        <v>0.000765910594600441</v>
       </c>
       <c r="D109">
-        <v>1.5318211892008819E-6</v>
+        <v>1.531821189200882E-06</v>
       </c>
       <c r="E109">
         <v>28.14791927311536</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3351,16 +3297,16 @@
         <v>112</v>
       </c>
       <c r="C110">
-        <v>1.0987142474014561E-3</v>
+        <v>0.001098714247401456</v>
       </c>
       <c r="D110">
-        <v>2.197428494802912E-6</v>
+        <v>2.197428494802912E-06</v>
       </c>
       <c r="E110">
-        <v>26.580852481394128</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.58085248139413</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3368,16 +3314,16 @@
         <v>113</v>
       </c>
       <c r="C111">
-        <v>1.0131981829864681E-3</v>
+        <v>0.001013198182986468</v>
       </c>
       <c r="D111">
-        <v>2.026396365972936E-6</v>
+        <v>2.026396365972936E-06</v>
       </c>
       <c r="E111">
         <v>26.93275602056492</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3385,16 +3331,16 @@
         <v>114</v>
       </c>
       <c r="C112">
-        <v>2.136000936329383E-4</v>
+        <v>0.0002136000936329383</v>
       </c>
       <c r="D112">
-        <v>4.2720018726587661E-7</v>
+        <v>4.272001872658766E-07</v>
       </c>
       <c r="E112">
         <v>33.69368565603753</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3402,16 +3348,16 @@
         <v>115</v>
       </c>
       <c r="C113">
-        <v>4.0141152317854938E-4</v>
+        <v>0.0004014115231785494</v>
       </c>
       <c r="D113">
-        <v>8.0282304635709895E-7</v>
+        <v>8.028230463570989E-07</v>
       </c>
       <c r="E113">
-        <v>30.953801688675949</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30.95380168867595</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3419,16 +3365,16 @@
         <v>116</v>
       </c>
       <c r="C114">
-        <v>5.6242726484090095E-4</v>
+        <v>0.0005624272648409009</v>
       </c>
       <c r="D114">
-        <v>1.1248545296818019E-6</v>
+        <v>1.124854529681802E-06</v>
       </c>
       <c r="E114">
         <v>29.4890363847834</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3436,16 +3382,16 @@
         <v>117</v>
       </c>
       <c r="C115">
-        <v>7.057825308488053E-4</v>
+        <v>0.0007057825308488053</v>
       </c>
       <c r="D115">
-        <v>1.411565061697611E-6</v>
+        <v>1.411565061697611E-06</v>
       </c>
       <c r="E115">
-        <v>28.502990996034509</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.50299099603451</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3453,16 +3399,16 @@
         <v>118</v>
       </c>
       <c r="C116">
-        <v>7.8948132548013121E-4</v>
+        <v>0.0007894813254801312</v>
       </c>
       <c r="D116">
-        <v>1.5789626509602629E-6</v>
+        <v>1.578962650960263E-06</v>
       </c>
       <c r="E116">
         <v>28.01628142742625</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3470,16 +3416,16 @@
         <v>119</v>
       </c>
       <c r="C117">
-        <v>8.9995713702722675E-4</v>
+        <v>0.0008999571370272268</v>
       </c>
       <c r="D117">
-        <v>1.7999142740544541E-6</v>
+        <v>1.799914274054454E-06</v>
       </c>
       <c r="E117">
-        <v>27.447481788920779</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.44748178892078</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3487,16 +3433,16 @@
         <v>120</v>
       </c>
       <c r="C118">
-        <v>8.6679827251115677E-4</v>
+        <v>0.0008667982725111568</v>
       </c>
       <c r="D118">
-        <v>1.7335965450223141E-6</v>
+        <v>1.733596545022314E-06</v>
       </c>
       <c r="E118">
         <v>27.6105196721618</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3504,16 +3450,16 @@
         <v>121</v>
       </c>
       <c r="C119">
-        <v>8.7244246227204396E-4</v>
+        <v>0.000872442462272044</v>
       </c>
       <c r="D119">
-        <v>1.744884924544088E-6</v>
+        <v>1.744884924544088E-06</v>
       </c>
       <c r="E119">
         <v>27.58233209554918</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3521,16 +3467,16 @@
         <v>122</v>
       </c>
       <c r="C120">
-        <v>1.093852333150387E-3</v>
+        <v>0.001093852333150387</v>
       </c>
       <c r="D120">
-        <v>2.1877046663007751E-6</v>
+        <v>2.187704666300775E-06</v>
       </c>
       <c r="E120">
         <v>26.60011306860082</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3538,16 +3484,16 @@
         <v>123</v>
       </c>
       <c r="C121">
-        <v>9.7637478465016625E-4</v>
+        <v>0.0009763747846501663</v>
       </c>
       <c r="D121">
-        <v>1.952749569300333E-6</v>
+        <v>1.952749569300333E-06</v>
       </c>
       <c r="E121">
-        <v>27.093534493105491</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.09353449310549</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3555,16 +3501,16 @@
         <v>124</v>
       </c>
       <c r="C122">
-        <v>1.033458203934396E-3</v>
+        <v>0.001033458203934396</v>
       </c>
       <c r="D122">
-        <v>2.0669164078687911E-6</v>
+        <v>2.066916407868791E-06</v>
       </c>
       <c r="E122">
-        <v>26.846770871537551</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.84677087153755</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3572,16 +3518,16 @@
         <v>125</v>
       </c>
       <c r="C123">
-        <v>1.119730050658071E-3</v>
+        <v>0.001119730050658071</v>
       </c>
       <c r="D123">
-        <v>2.239460101316141E-6</v>
+        <v>2.239460101316141E-06</v>
       </c>
       <c r="E123">
-        <v>26.498566706305869</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.49856670630587</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3589,16 +3535,16 @@
         <v>126</v>
       </c>
       <c r="C124">
-        <v>2.3717082451262851E-4</v>
+        <v>0.0002371708245126285</v>
       </c>
       <c r="D124">
-        <v>4.7434164902525688E-7</v>
+        <v>4.743416490252569E-07</v>
       </c>
       <c r="E124">
-        <v>33.239087409443187</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33.23908740944319</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3606,16 +3552,16 @@
         <v>127</v>
       </c>
       <c r="C125">
-        <v>3.7067189141979718E-4</v>
+        <v>0.0003706718914197972</v>
       </c>
       <c r="D125">
-        <v>7.4134378283959441E-7</v>
+        <v>7.413437828395944E-07</v>
       </c>
       <c r="E125">
-        <v>31.299803502301589</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.29980350230159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3623,16 +3569,16 @@
         <v>128</v>
       </c>
       <c r="C126">
-        <v>5.6320954035071942E-4</v>
+        <v>0.0005632095403507194</v>
       </c>
       <c r="D126">
-        <v>1.1264190807014391E-6</v>
+        <v>1.126419080701439E-06</v>
       </c>
       <c r="E126">
-        <v>29.483000015141432</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.48300001514143</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3640,16 +3586,16 @@
         <v>129</v>
       </c>
       <c r="C127">
-        <v>5.5756535058983222E-4</v>
+        <v>0.0005575653505898322</v>
       </c>
       <c r="D127">
-        <v>1.115130701179665E-6</v>
+        <v>1.115130701179665E-06</v>
       </c>
       <c r="E127">
-        <v>29.526742272575461</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.52674227257546</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3657,16 +3603,16 @@
         <v>130</v>
       </c>
       <c r="C128">
-        <v>7.65910594600441E-4</v>
+        <v>0.000765910594600441</v>
       </c>
       <c r="D128">
-        <v>1.5318211892008819E-6</v>
+        <v>1.531821189200882E-06</v>
       </c>
       <c r="E128">
         <v>28.14791927311536</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3674,16 +3620,16 @@
         <v>131</v>
       </c>
       <c r="C129">
-        <v>7.5010299952075446E-4</v>
+        <v>0.0007501029995207545</v>
       </c>
       <c r="D129">
-        <v>1.500205999041509E-6</v>
+        <v>1.500205999041509E-06</v>
       </c>
       <c r="E129">
         <v>28.23849102208062</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3691,16 +3637,16 @@
         <v>132</v>
       </c>
       <c r="C130">
-        <v>8.7638640614753666E-4</v>
+        <v>0.0008763864061475367</v>
       </c>
       <c r="D130">
-        <v>1.7527728122950731E-6</v>
+        <v>1.752772812295073E-06</v>
       </c>
       <c r="E130">
         <v>27.56274371847282</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3708,16 +3654,16 @@
         <v>133</v>
       </c>
       <c r="C131">
-        <v>8.7166018676222549E-4</v>
+        <v>0.0008716601867622255</v>
       </c>
       <c r="D131">
-        <v>1.743320373524451E-6</v>
+        <v>1.743320373524451E-06</v>
       </c>
       <c r="E131">
-        <v>27.586227943769028</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.58622794376903</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3725,16 +3671,16 @@
         <v>134</v>
       </c>
       <c r="C132">
-        <v>1.070281602270697E-3</v>
+        <v>0.001070281602270697</v>
       </c>
       <c r="D132">
-        <v>2.1405632045413941E-6</v>
+        <v>2.140563204541394E-06</v>
       </c>
       <c r="E132">
-        <v>26.694719442004711</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.69471944200471</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3742,16 +3688,16 @@
         <v>135</v>
       </c>
       <c r="C133">
-        <v>9.5280405377047616E-4</v>
+        <v>0.0009528040537704762</v>
       </c>
       <c r="D133">
-        <v>1.905608107540952E-6</v>
+        <v>1.905608107540952E-06</v>
       </c>
       <c r="E133">
         <v>27.19966408121579</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3759,16 +3705,16 @@
         <v>136</v>
       </c>
       <c r="C134">
-        <v>1.0961593197783811E-3</v>
+        <v>0.001096159319778381</v>
       </c>
       <c r="D134">
-        <v>2.1923186395567608E-6</v>
+        <v>2.192318639556761E-06</v>
       </c>
       <c r="E134">
         <v>26.5909632366205</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3776,16 +3722,16 @@
         <v>137</v>
       </c>
       <c r="C135">
-        <v>1.0641978356931479E-3</v>
+        <v>0.001064197835693148</v>
       </c>
       <c r="D135">
-        <v>2.128395671386296E-6</v>
+        <v>2.128395671386296E-06</v>
       </c>
       <c r="E135">
         <v>26.71947632990577</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3793,16 +3739,16 @@
         <v>138</v>
       </c>
       <c r="C136">
-        <v>4.1394751980926541E-4</v>
+        <v>0.0004139475198092654</v>
       </c>
       <c r="D136">
-        <v>8.2789503961853083E-7</v>
+        <v>8.278950396185308E-07</v>
       </c>
       <c r="E136">
         <v>30.82024719500042</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3810,16 +3756,16 @@
         <v>139</v>
       </c>
       <c r="C137">
-        <v>3.8643284505408251E-4</v>
+        <v>0.0003864328450540825</v>
       </c>
       <c r="D137">
-        <v>7.7286569010816515E-7</v>
+        <v>7.728656901081651E-07</v>
       </c>
       <c r="E137">
-        <v>31.118959719457649</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.11895971945765</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3827,16 +3773,16 @@
         <v>140</v>
       </c>
       <c r="C138">
-        <v>6.3372043344010927E-4</v>
+        <v>0.0006337204334401093</v>
       </c>
       <c r="D138">
-        <v>1.2674408668802179E-6</v>
+        <v>1.267440866880218E-06</v>
       </c>
       <c r="E138">
-        <v>28.970722937592761</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.97072293759276</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3844,16 +3790,16 @@
         <v>141</v>
       </c>
       <c r="C139">
-        <v>5.4744858671643408E-4</v>
+        <v>0.0005474485867164341</v>
       </c>
       <c r="D139">
-        <v>1.094897173432868E-6</v>
+        <v>1.094897173432868E-06</v>
       </c>
       <c r="E139">
-        <v>29.606266653970131</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.60626665397013</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3861,16 +3807,16 @@
         <v>142</v>
       </c>
       <c r="C140">
-        <v>5.891338993038041E-4</v>
+        <v>0.0005891338993038041</v>
       </c>
       <c r="D140">
-        <v>1.1782677986076079E-6</v>
+        <v>1.178267798607608E-06</v>
       </c>
       <c r="E140">
-        <v>29.287559911790311</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.28755991179031</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3878,16 +3824,16 @@
         <v>143</v>
       </c>
       <c r="C141">
-        <v>5.7332630422411756E-4</v>
+        <v>0.0005733263042241176</v>
       </c>
       <c r="D141">
-        <v>1.146652608448235E-6</v>
+        <v>1.146652608448235E-06</v>
       </c>
       <c r="E141">
-        <v>29.405681366633502</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.4056813666335</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3895,16 +3841,16 @@
         <v>144</v>
       </c>
       <c r="C142">
-        <v>6.9960971085089975E-4</v>
+        <v>0.0006996097108508998</v>
       </c>
       <c r="D142">
-        <v>1.3992194217018E-6</v>
+        <v>1.3992194217018E-06</v>
       </c>
       <c r="E142">
         <v>28.54114175313698</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3912,16 +3858,16 @@
         <v>145</v>
       </c>
       <c r="C143">
-        <v>8.3642148768983075E-4</v>
+        <v>0.0008364214876898307</v>
       </c>
       <c r="D143">
-        <v>1.672842975379662E-6</v>
+        <v>1.672842975379662E-06</v>
       </c>
       <c r="E143">
         <v>27.76544823010504</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3929,16 +3875,16 @@
         <v>146</v>
       </c>
       <c r="C144">
-        <v>8.9350490697405992E-4</v>
+        <v>0.0008935049069740599</v>
       </c>
       <c r="D144">
-        <v>1.7870098139481201E-6</v>
+        <v>1.78700981394812E-06</v>
       </c>
       <c r="E144">
         <v>27.47873062417797</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3946,16 +3892,16 @@
         <v>147</v>
       </c>
       <c r="C145">
-        <v>7.3434204588646913E-4</v>
+        <v>0.0007343420458864691</v>
       </c>
       <c r="D145">
-        <v>1.4686840917729379E-6</v>
+        <v>1.468684091772938E-06</v>
       </c>
       <c r="E145">
-        <v>28.330716092158941</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.33071609215894</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3963,16 +3909,16 @@
         <v>148</v>
       </c>
       <c r="C146">
-        <v>7.7602735847383925E-4</v>
+        <v>0.0007760273584738393</v>
       </c>
       <c r="D146">
-        <v>1.5520547169476791E-6</v>
+        <v>1.552054716947679E-06</v>
       </c>
       <c r="E146">
         <v>28.09092971963425</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3980,16 +3926,16 @@
         <v>149</v>
       </c>
       <c r="C147">
-        <v>8.8742114039651082E-4</v>
+        <v>0.0008874211403965108</v>
       </c>
       <c r="D147">
-        <v>1.7748422807930221E-6</v>
+        <v>1.774842280793022E-06</v>
       </c>
       <c r="E147">
-        <v>27.508402339467029</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.50840233946703</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3997,16 +3943,16 @@
         <v>150</v>
       </c>
       <c r="C148">
-        <v>1.140792495360087E-3</v>
+        <v>0.001140792495360087</v>
       </c>
       <c r="D148">
-        <v>2.281584990720174E-6</v>
+        <v>2.281584990720174E-06</v>
       </c>
       <c r="E148">
-        <v>26.417633488008999</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.417633488009</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -4014,16 +3960,16 @@
         <v>151</v>
       </c>
       <c r="C149">
-        <v>1.048436882058862E-3</v>
+        <v>0.001048436882058862</v>
       </c>
       <c r="D149">
-        <v>2.0968737641177252E-6</v>
+        <v>2.096873764117725E-06</v>
       </c>
       <c r="E149">
         <v>26.78427714120874</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -4031,16 +3977,16 @@
         <v>152</v>
       </c>
       <c r="C150">
-        <v>1.8027756377319949E-4</v>
+        <v>0.0001802775637731995</v>
       </c>
       <c r="D150">
-        <v>3.6055512754639898E-7</v>
+        <v>3.60555127546399E-07</v>
       </c>
       <c r="E150">
-        <v>34.430283238465819</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34.43028323846582</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -4048,16 +3994,16 @@
         <v>153</v>
       </c>
       <c r="C151">
-        <v>4.2756515215922622E-4</v>
+        <v>0.0004275651521592262</v>
       </c>
       <c r="D151">
-        <v>8.5513030431845231E-7</v>
+        <v>8.551303043184523E-07</v>
       </c>
       <c r="E151">
-        <v>30.679677026582119</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30.67967702658212</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -4065,16 +4011,16 @@
         <v>154</v>
       </c>
       <c r="C152">
-        <v>3.6717102294323462E-4</v>
+        <v>0.0003671710229432346</v>
       </c>
       <c r="D152">
-        <v>7.3434204588646927E-7</v>
+        <v>7.343420458864693E-07</v>
       </c>
       <c r="E152">
         <v>31.34101604879875</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -4082,16 +4028,16 @@
         <v>155</v>
       </c>
       <c r="C153">
-        <v>6.2010280109014841E-4</v>
+        <v>0.0006201028010901484</v>
       </c>
       <c r="D153">
-        <v>1.2402056021802971E-6</v>
+        <v>1.240205602180297E-06</v>
       </c>
       <c r="E153">
-        <v>29.065063112163749</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.06506311216375</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -4099,16 +4045,16 @@
         <v>156</v>
       </c>
       <c r="C154">
-        <v>6.8126585911562783E-4</v>
+        <v>0.0006812658591156278</v>
       </c>
       <c r="D154">
-        <v>1.362531718231256E-6</v>
+        <v>1.362531718231256E-06</v>
       </c>
       <c r="E154">
-        <v>28.656533790384941</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.65653379038494</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -4116,16 +4062,16 @@
         <v>157</v>
       </c>
       <c r="C155">
-        <v>8.2280385533986999E-4</v>
+        <v>0.00082280385533987</v>
       </c>
       <c r="D155">
-        <v>1.6456077106797399E-6</v>
+        <v>1.64560771067974E-06</v>
       </c>
       <c r="E155">
-        <v>27.836736863729961</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.83673686372996</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -4133,16 +4079,16 @@
         <v>158</v>
       </c>
       <c r="C156">
-        <v>9.0576499213178285E-4</v>
+        <v>0.0009057649921317829</v>
       </c>
       <c r="D156">
-        <v>1.811529984263566E-6</v>
+        <v>1.811529984263566E-06</v>
       </c>
       <c r="E156">
-        <v>27.419544731710172</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.41954473171017</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4150,16 +4096,16 @@
         <v>159</v>
       </c>
       <c r="C157">
-        <v>1.1271748630101259E-3</v>
+        <v>0.001127174863010126</v>
       </c>
       <c r="D157">
-        <v>2.2543497260202521E-6</v>
+        <v>2.254349726020252E-06</v>
       </c>
       <c r="E157">
-        <v>26.469787092752799</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.4697870927528</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4167,16 +4113,16 @@
         <v>160</v>
       </c>
       <c r="C158">
-        <v>1.066780733794134E-3</v>
+        <v>0.001066780733794134</v>
       </c>
       <c r="D158">
-        <v>2.1335614675882689E-6</v>
+        <v>2.133561467588269E-06</v>
       </c>
       <c r="E158">
-        <v>26.708948406650599</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.7089484066506</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4184,16 +4130,16 @@
         <v>161</v>
       </c>
       <c r="C159">
-        <v>1.7677669529663691E-4</v>
+        <v>0.0001767766952966369</v>
       </c>
       <c r="D159">
-        <v>3.5355339059327379E-7</v>
+        <v>3.535533905932738E-07</v>
       </c>
       <c r="E159">
-        <v>34.515449934959719</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34.51544993495972</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4201,16 +4147,16 @@
         <v>162</v>
       </c>
       <c r="C160">
-        <v>3.7067189141979718E-4</v>
+        <v>0.0003706718914197972</v>
       </c>
       <c r="D160">
-        <v>7.4134378283959441E-7</v>
+        <v>7.413437828395944E-07</v>
       </c>
       <c r="E160">
-        <v>31.299803502301589</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.29980350230159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4218,16 +4164,16 @@
         <v>163</v>
       </c>
       <c r="C161">
-        <v>6.1795947980582383E-4</v>
+        <v>0.0006179594798058238</v>
       </c>
       <c r="D161">
-        <v>1.2359189596116479E-6</v>
+        <v>1.235918959611648E-06</v>
       </c>
       <c r="E161">
-        <v>29.080100054181941</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.08010005418194</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4235,16 +4181,16 @@
         <v>164</v>
       </c>
       <c r="C162">
-        <v>6.8476672759219034E-4</v>
+        <v>0.0006847667275921903</v>
       </c>
       <c r="D162">
-        <v>1.369533455184381E-6</v>
+        <v>1.369533455184381E-06</v>
       </c>
       <c r="E162">
         <v>28.63427354264709</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4252,16 +4198,16 @@
         <v>165</v>
       </c>
       <c r="C163">
-        <v>8.1049712873674607E-4</v>
+        <v>0.0008104971287367461</v>
       </c>
       <c r="D163">
-        <v>1.6209942574734921E-6</v>
+        <v>1.620994257473492E-06</v>
       </c>
       <c r="E163">
-        <v>27.902185236783151</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.90218523678315</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4269,16 +4215,16 @@
         <v>166</v>
       </c>
       <c r="C164">
-        <v>9.3678053536352815E-4</v>
+        <v>0.0009367805353635282</v>
       </c>
       <c r="D164">
-        <v>1.873561070727056E-6</v>
+        <v>1.873561070727056E-06</v>
       </c>
       <c r="E164">
-        <v>27.273321460463009</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.27332146046301</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4286,16 +4232,16 @@
         <v>167</v>
       </c>
       <c r="C165">
-        <v>9.3205431597821709E-4</v>
+        <v>0.0009320543159782171</v>
       </c>
       <c r="D165">
-        <v>1.864108631956434E-6</v>
+        <v>1.864108631956434E-06</v>
       </c>
       <c r="E165">
-        <v>27.295287824946229</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.29528782494623</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4303,16 +4249,16 @@
         <v>168</v>
       </c>
       <c r="C166">
-        <v>9.0926586060834536E-4</v>
+        <v>0.0009092658606083454</v>
       </c>
       <c r="D166">
-        <v>1.8185317212166909E-6</v>
+        <v>1.818531721216691E-06</v>
       </c>
       <c r="E166">
         <v>27.40279119008931</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4320,16 +4266,16 @@
         <v>169</v>
       </c>
       <c r="C167">
-        <v>1.124591964909139E-3</v>
+        <v>0.001124591964909139</v>
       </c>
       <c r="D167">
-        <v>2.2491839298182792E-6</v>
+        <v>2.249183929818279E-06</v>
       </c>
       <c r="E167">
         <v>26.47975028139772</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4337,16 +4283,16 @@
         <v>170</v>
       </c>
       <c r="C168">
-        <v>1.0131981829864681E-3</v>
+        <v>0.001013198182986468</v>
       </c>
       <c r="D168">
-        <v>2.026396365972936E-6</v>
+        <v>2.026396365972936E-06</v>
       </c>
       <c r="E168">
         <v>26.93275602056492</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -4354,16 +4300,16 @@
         <v>171</v>
       </c>
       <c r="C169">
-        <v>1.1565534489943719E-3</v>
+        <v>0.001156553448994372</v>
       </c>
       <c r="D169">
-        <v>2.313106897988744E-6</v>
+        <v>2.313106897988744E-06</v>
       </c>
       <c r="E169">
-        <v>26.358042962679139</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.35804296267914</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -4371,16 +4317,16 @@
         <v>172</v>
       </c>
       <c r="C170">
-        <v>1.070281602270697E-3</v>
+        <v>0.001070281602270697</v>
       </c>
       <c r="D170">
-        <v>2.1405632045413941E-6</v>
+        <v>2.140563204541394E-06</v>
       </c>
       <c r="E170">
-        <v>26.694719442004711</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.69471944200471</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -4388,16 +4334,16 @@
         <v>173</v>
       </c>
       <c r="C171">
-        <v>3.7553380567086579E-4</v>
+        <v>0.0003755338056708658</v>
       </c>
       <c r="D171">
-        <v>7.5106761134173187E-7</v>
+        <v>7.510676113417319E-07</v>
       </c>
       <c r="E171">
-        <v>31.243209659106849</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.24320965910685</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -4405,16 +4351,16 @@
         <v>174</v>
       </c>
       <c r="C172">
-        <v>4.8600961721796139E-4</v>
+        <v>0.0004860096172179614</v>
       </c>
       <c r="D172">
-        <v>9.7201923443592304E-7</v>
+        <v>9.72019234435923E-07</v>
       </c>
       <c r="E172">
-        <v>30.123251411161799</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30.1232514111618</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -4422,16 +4368,16 @@
         <v>175</v>
       </c>
       <c r="C173">
-        <v>6.2754761344220361E-4</v>
+        <v>0.0006275476134422036</v>
       </c>
       <c r="D173">
-        <v>1.2550952268844069E-6</v>
+        <v>1.255095226884407E-06</v>
       </c>
       <c r="E173">
-        <v>29.013233220383359</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.01323322038336</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -4439,16 +4385,16 @@
         <v>176</v>
       </c>
       <c r="C174">
-        <v>6.2282139405689255E-4</v>
+        <v>0.0006228213940568926</v>
       </c>
       <c r="D174">
-        <v>1.2456427881137851E-6</v>
+        <v>1.245642788113785E-06</v>
       </c>
       <c r="E174">
-        <v>29.046064820692351</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.04606482069235</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -4456,16 +4402,16 @@
         <v>177</v>
       </c>
       <c r="C175">
-        <v>6.0003293868702082E-4</v>
+        <v>0.0006000329386870208</v>
       </c>
       <c r="D175">
-        <v>1.2000658773740421E-6</v>
+        <v>1.200065877374042E-06</v>
       </c>
       <c r="E175">
-        <v>29.207949127900928</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.20794912790093</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -4473,16 +4419,16 @@
         <v>178</v>
       </c>
       <c r="C176">
-        <v>6.7990481334112172E-4</v>
+        <v>0.0006799048133411217</v>
       </c>
       <c r="D176">
-        <v>1.359809626682244E-6</v>
+        <v>1.359809626682244E-06</v>
       </c>
       <c r="E176">
         <v>28.66521888591987</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -4490,16 +4436,16 @@
         <v>179</v>
       </c>
       <c r="C177">
-        <v>5.6242726484090095E-4</v>
+        <v>0.0005624272648409009</v>
       </c>
       <c r="D177">
-        <v>1.1248545296818019E-6</v>
+        <v>1.124854529681802E-06</v>
       </c>
       <c r="E177">
         <v>29.4890363847834</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -4507,16 +4453,16 @@
         <v>180</v>
       </c>
       <c r="C178">
-        <v>8.1535904298781479E-4</v>
+        <v>0.0008153590429878148</v>
       </c>
       <c r="D178">
-        <v>1.6307180859756301E-6</v>
+        <v>1.63071808597563E-06</v>
       </c>
       <c r="E178">
-        <v>27.876211120973981</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.87621112097398</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -4524,16 +4470,16 @@
         <v>181</v>
       </c>
       <c r="C179">
-        <v>8.4732052707304746E-4</v>
+        <v>0.0008473205270730475</v>
       </c>
       <c r="D179">
-        <v>1.6946410541460951E-6</v>
+        <v>1.694641054146095E-06</v>
       </c>
       <c r="E179">
         <v>27.70922276642025</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -4541,16 +4487,16 @@
         <v>182</v>
       </c>
       <c r="C180">
-        <v>9.2719240172714837E-4</v>
+        <v>0.0009271924017271484</v>
       </c>
       <c r="D180">
-        <v>1.854384803454297E-6</v>
+        <v>1.854384803454297E-06</v>
       </c>
       <c r="E180">
         <v>27.31800140376912</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -4558,16 +4504,16 @@
         <v>183</v>
       </c>
       <c r="C181">
-        <v>7.6104868034937239E-4</v>
+        <v>0.0007610486803493724</v>
       </c>
       <c r="D181">
-        <v>1.522097360698745E-6</v>
+        <v>1.522097360698745E-06</v>
       </c>
       <c r="E181">
-        <v>28.175575671042949</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.17557567104295</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -4575,16 +4521,16 @@
         <v>184</v>
       </c>
       <c r="C182">
-        <v>7.8692639785705575E-4</v>
+        <v>0.0007869263978570558</v>
       </c>
       <c r="D182">
-        <v>1.5738527957141119E-6</v>
+        <v>1.573852795714112E-06</v>
       </c>
       <c r="E182">
         <v>28.03035890146398</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -4592,16 +4538,16 @@
         <v>185</v>
       </c>
       <c r="C183">
-        <v>1.119730050658071E-3</v>
+        <v>0.001119730050658071</v>
       </c>
       <c r="D183">
-        <v>2.239460101316141E-6</v>
+        <v>2.239460101316141E-06</v>
       </c>
       <c r="E183">
-        <v>26.498566706305869</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.49856670630587</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -4609,16 +4555,16 @@
         <v>186</v>
       </c>
       <c r="C184">
-        <v>9.4794213951940732E-4</v>
+        <v>0.0009479421395194073</v>
       </c>
       <c r="D184">
-        <v>1.895884279038815E-6</v>
+        <v>1.895884279038815E-06</v>
       </c>
       <c r="E184">
-        <v>27.221881746501911</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.22188174650191</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -4626,16 +4572,16 @@
         <v>187</v>
       </c>
       <c r="C185">
-        <v>1.9039432764659771E-4</v>
+        <v>0.0001903943276465977</v>
       </c>
       <c r="D185">
-        <v>3.8078865529319537E-7</v>
+        <v>3.807886552931954E-07</v>
       </c>
       <c r="E185">
-        <v>34.193159988825123</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34.19315998882512</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -4643,16 +4589,16 @@
         <v>188</v>
       </c>
       <c r="C186">
-        <v>3.8293197657752001E-4</v>
+        <v>0.00038293197657752</v>
       </c>
       <c r="D186">
-        <v>7.6586395315504001E-7</v>
+        <v>7.6586395315504E-07</v>
       </c>
       <c r="E186">
-        <v>31.158483708916311</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.15848370891631</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -4660,16 +4606,16 @@
         <v>189</v>
       </c>
       <c r="C187">
-        <v>4.1744838828582792E-4</v>
+        <v>0.0004174483882858279</v>
       </c>
       <c r="D187">
-        <v>8.3489677657165597E-7</v>
+        <v>8.34896776571656E-07</v>
       </c>
       <c r="E187">
         <v>30.78367215697816</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -4677,16 +4623,16 @@
         <v>190</v>
       </c>
       <c r="C188">
-        <v>6.0434184745586307E-4</v>
+        <v>0.0006043418474558631</v>
       </c>
       <c r="D188">
-        <v>1.208683694911726E-6</v>
+        <v>1.208683694911726E-06</v>
       </c>
       <c r="E188">
         <v>29.17687336465325</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -4694,16 +4640,16 @@
         <v>191</v>
       </c>
       <c r="C189">
-        <v>5.8563303082724148E-4</v>
+        <v>0.0005856330308272415</v>
       </c>
       <c r="D189">
-        <v>1.171266061654483E-6</v>
+        <v>1.171266061654483E-06</v>
       </c>
       <c r="E189">
         <v>29.31344440552332</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -4711,16 +4657,16 @@
         <v>192</v>
       </c>
       <c r="C190">
-        <v>8.900040384974973E-4</v>
+        <v>0.0008900040384974973</v>
       </c>
       <c r="D190">
-        <v>1.780008076994995E-6</v>
+        <v>1.780008076994995E-06</v>
       </c>
       <c r="E190">
-        <v>27.495780270245898</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.4957802702459</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -4728,16 +4674,16 @@
         <v>193</v>
       </c>
       <c r="C191">
-        <v>9.1843668362825634E-4</v>
+        <v>0.0009184366836282563</v>
       </c>
       <c r="D191">
-        <v>1.8368733672565129E-6</v>
+        <v>1.836873367256513E-06</v>
       </c>
       <c r="E191">
-        <v>27.359207826149159</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.35920782614916</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -4745,16 +4691,16 @@
         <v>194</v>
       </c>
       <c r="C192">
-        <v>1.142935816644411E-3</v>
+        <v>0.001142935816644411</v>
       </c>
       <c r="D192">
-        <v>2.2858716332888221E-6</v>
+        <v>2.285871633288822E-06</v>
       </c>
       <c r="E192">
-        <v>26.409481617446001</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.409481617446</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -4762,16 +4708,16 @@
         <v>195</v>
       </c>
       <c r="C193">
-        <v>1.056663969920736E-3</v>
+        <v>0.001056663969920736</v>
       </c>
       <c r="D193">
-        <v>2.113327939841473E-6</v>
+        <v>2.113327939841473E-06</v>
       </c>
       <c r="E193">
         <v>26.7503310521336</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -4779,16 +4725,16 @@
         <v>196</v>
       </c>
       <c r="C194">
-        <v>2.0615528128088299E-4</v>
+        <v>0.000206155281280883</v>
       </c>
       <c r="D194">
-        <v>4.1231056256176611E-7</v>
+        <v>4.123105625617661E-07</v>
       </c>
       <c r="E194">
-        <v>33.847755393108628</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33.84775539310863</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -4796,16 +4742,16 @@
         <v>197</v>
       </c>
       <c r="C195">
-        <v>3.6717102294323462E-4</v>
+        <v>0.0003671710229432346</v>
       </c>
       <c r="D195">
-        <v>7.3434204588646927E-7</v>
+        <v>7.343420458864693E-07</v>
       </c>
       <c r="E195">
         <v>31.34101604879875</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -4813,16 +4759,16 @@
         <v>198</v>
       </c>
       <c r="C196">
-        <v>4.0885633553060458E-4</v>
+        <v>0.0004088563355306046</v>
       </c>
       <c r="D196">
-        <v>8.1771267106120939E-7</v>
+        <v>8.177126710612094E-07</v>
       </c>
       <c r="E196">
-        <v>30.873992724823001</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30.873992724823</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -4830,16 +4776,16 @@
         <v>199</v>
       </c>
       <c r="C197">
-        <v>5.9422508358246483E-4</v>
+        <v>0.0005942250835824648</v>
       </c>
       <c r="D197">
-        <v>1.1884501671649299E-6</v>
+        <v>1.18845016716493E-06</v>
       </c>
       <c r="E197">
-        <v>29.250190239307688</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.25019023930769</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -4847,16 +4793,16 @@
         <v>200</v>
       </c>
       <c r="C198">
-        <v>7.132273432008604E-4</v>
+        <v>0.0007132273432008604</v>
       </c>
       <c r="D198">
-        <v>1.426454686401721E-6</v>
+        <v>1.426454686401721E-06</v>
       </c>
       <c r="E198">
-        <v>28.457420198416461</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.45742019841646</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -4864,16 +4810,16 @@
         <v>201</v>
       </c>
       <c r="C199">
-        <v>8.7988727462409906E-4</v>
+        <v>0.0008798872746240991</v>
       </c>
       <c r="D199">
-        <v>1.759774549248199E-6</v>
+        <v>1.759774549248199E-06</v>
       </c>
       <c r="E199">
         <v>27.54542967577386</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -4881,16 +4827,16 @@
         <v>202</v>
       </c>
       <c r="C200">
-        <v>7.8111854275249998E-4</v>
+        <v>0.0007811185427525</v>
       </c>
       <c r="D200">
-        <v>1.562237085505E-6</v>
+        <v>1.562237085505E-06</v>
       </c>
       <c r="E200">
-        <v>28.062530568139209</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.06253056813921</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -4898,16 +4844,16 @@
         <v>203</v>
       </c>
       <c r="C201">
-        <v>1.1271748630101259E-3</v>
+        <v>0.001127174863010126</v>
       </c>
       <c r="D201">
-        <v>2.2543497260202521E-6</v>
+        <v>2.254349726020252E-06</v>
       </c>
       <c r="E201">
-        <v>26.469787092752799</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.4697870927528</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -4915,16 +4861,16 @@
         <v>204</v>
       </c>
       <c r="C202">
-        <v>1.095213378924893E-3</v>
+        <v>0.001095213378924893</v>
       </c>
       <c r="D202">
-        <v>2.190426757849786E-6</v>
+        <v>2.190426757849786E-06</v>
       </c>
       <c r="E202">
-        <v>26.594712639162889</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.59471263916289</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -4932,16 +4878,16 @@
         <v>205</v>
       </c>
       <c r="C203">
-        <v>1.8027756377319949E-4</v>
+        <v>0.0001802775637731995</v>
       </c>
       <c r="D203">
-        <v>3.6055512754639898E-7</v>
+        <v>3.60555127546399E-07</v>
       </c>
       <c r="E203">
-        <v>34.430283238465819</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34.43028323846582</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -4949,16 +4895,16 @@
         <v>206</v>
       </c>
       <c r="C204">
-        <v>4.2756515215922622E-4</v>
+        <v>0.0004275651521592262</v>
       </c>
       <c r="D204">
-        <v>8.5513030431845231E-7</v>
+        <v>8.551303043184523E-07</v>
       </c>
       <c r="E204">
-        <v>30.679677026582119</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30.67967702658212</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -4966,16 +4912,16 @@
         <v>207</v>
       </c>
       <c r="C205">
-        <v>3.6717102294323462E-4</v>
+        <v>0.0003671710229432346</v>
       </c>
       <c r="D205">
-        <v>7.3434204588646927E-7</v>
+        <v>7.343420458864693E-07</v>
       </c>
       <c r="E205">
         <v>31.34101604879875</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -4983,16 +4929,16 @@
         <v>208</v>
       </c>
       <c r="C206">
-        <v>6.2010280109014841E-4</v>
+        <v>0.0006201028010901484</v>
       </c>
       <c r="D206">
-        <v>1.2402056021802971E-6</v>
+        <v>1.240205602180297E-06</v>
       </c>
       <c r="E206">
-        <v>29.065063112163749</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.06506311216375</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -5000,16 +4946,16 @@
         <v>209</v>
       </c>
       <c r="C207">
-        <v>6.8126585911562783E-4</v>
+        <v>0.0006812658591156278</v>
       </c>
       <c r="D207">
-        <v>1.362531718231256E-6</v>
+        <v>1.362531718231256E-06</v>
       </c>
       <c r="E207">
-        <v>28.656533790384941</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.65653379038494</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -5017,16 +4963,16 @@
         <v>210</v>
       </c>
       <c r="C208">
-        <v>9.0576499213178274E-4</v>
+        <v>0.0009057649921317827</v>
       </c>
       <c r="D208">
-        <v>1.811529984263566E-6</v>
+        <v>1.811529984263566E-06</v>
       </c>
       <c r="E208">
-        <v>27.419544731710172</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.41954473171017</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -5034,16 +4980,16 @@
         <v>211</v>
       </c>
       <c r="C209">
-        <v>8.2280385533986988E-4</v>
+        <v>0.0008228038553398699</v>
       </c>
       <c r="D209">
-        <v>1.6456077106797399E-6</v>
+        <v>1.64560771067974E-06</v>
       </c>
       <c r="E209">
-        <v>27.836736863729961</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.83673686372996</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -5051,16 +4997,16 @@
         <v>212</v>
       </c>
       <c r="C210">
-        <v>1.066780733794134E-3</v>
+        <v>0.001066780733794134</v>
       </c>
       <c r="D210">
-        <v>2.1335614675882689E-6</v>
+        <v>2.133561467588269E-06</v>
       </c>
       <c r="E210">
-        <v>26.708948406650599</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.7089484066506</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -5068,16 +5014,16 @@
         <v>213</v>
       </c>
       <c r="C211">
-        <v>1.1271748630101259E-3</v>
+        <v>0.001127174863010126</v>
       </c>
       <c r="D211">
-        <v>2.2543497260202521E-6</v>
+        <v>2.254349726020252E-06</v>
       </c>
       <c r="E211">
-        <v>26.469787092752799</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.4697870927528</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -5085,16 +5031,16 @@
         <v>214</v>
       </c>
       <c r="C212">
-        <v>1.9039432764659771E-4</v>
+        <v>0.0001903943276465977</v>
       </c>
       <c r="D212">
-        <v>3.8078865529319537E-7</v>
+        <v>3.807886552931954E-07</v>
       </c>
       <c r="E212">
-        <v>34.193159988825123</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34.19315998882512</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -5102,16 +5048,16 @@
         <v>215</v>
       </c>
       <c r="C213">
-        <v>3.5705425906983643E-4</v>
+        <v>0.0003570542590698364</v>
       </c>
       <c r="D213">
-        <v>7.1410851813967283E-7</v>
+        <v>7.141085181396728E-07</v>
       </c>
       <c r="E213">
-        <v>31.462357864757251</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.46235786475725</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -5119,16 +5065,16 @@
         <v>216</v>
       </c>
       <c r="C214">
-        <v>5.0448916381899093E-4</v>
+        <v>0.0005044891638189909</v>
       </c>
       <c r="D214">
-        <v>1.0089783276379821E-6</v>
+        <v>1.008978327637982E-06</v>
       </c>
       <c r="E214">
         <v>29.96118162096408</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -5136,16 +5082,16 @@
         <v>217</v>
       </c>
       <c r="C215">
-        <v>6.0434184745586307E-4</v>
+        <v>0.0006043418474558631</v>
       </c>
       <c r="D215">
-        <v>1.208683694911726E-6</v>
+        <v>1.208683694911726E-06</v>
       </c>
       <c r="E215">
         <v>29.17687336465325</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -5153,16 +5099,16 @@
         <v>218</v>
       </c>
       <c r="C216">
-        <v>7.2898829683514584E-4</v>
+        <v>0.0007289882968351458</v>
       </c>
       <c r="D216">
-        <v>1.4579765936702921E-6</v>
+        <v>1.457976593670292E-06</v>
       </c>
       <c r="E216">
-        <v>28.362494481177901</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.3624944811779</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -5170,16 +5116,16 @@
         <v>219</v>
       </c>
       <c r="C217">
-        <v>8.9000403849749741E-4</v>
+        <v>0.0008900040384974974</v>
       </c>
       <c r="D217">
-        <v>1.780008076994995E-6</v>
+        <v>1.780008076994995E-06</v>
       </c>
       <c r="E217">
-        <v>27.495780270245898</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.4957802702459</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -5187,16 +5133,16 @@
         <v>220</v>
       </c>
       <c r="C218">
-        <v>7.9687949638678531E-4</v>
+        <v>0.0007968794963867853</v>
       </c>
       <c r="D218">
-        <v>1.593758992773571E-6</v>
+        <v>1.593758992773571E-06</v>
       </c>
       <c r="E218">
-        <v>27.975773517115879</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.97577351711588</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -5204,16 +5150,16 @@
         <v>221</v>
       </c>
       <c r="C219">
-        <v>1.1170580991367281E-3</v>
+        <v>0.001117058099136728</v>
       </c>
       <c r="D219">
-        <v>2.2341161982734561E-6</v>
+        <v>2.234116198273456E-06</v>
       </c>
       <c r="E219">
-        <v>26.508942426095761</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.50894242609576</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -5221,16 +5167,16 @@
         <v>222</v>
       </c>
       <c r="C220">
-        <v>9.9958055063650679E-4</v>
+        <v>0.0009995805506365068</v>
       </c>
       <c r="D220">
-        <v>1.9991611012730141E-6</v>
+        <v>1.999161101273014E-06</v>
       </c>
       <c r="E220">
-        <v>26.991522070951088</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.99152207095109</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -5238,16 +5184,16 @@
         <v>223</v>
       </c>
       <c r="C221">
-        <v>1.9525624189766641E-4</v>
+        <v>0.0001952562418976664</v>
       </c>
       <c r="D221">
-        <v>3.9051248379533278E-7</v>
+        <v>3.905124837953328E-07</v>
       </c>
       <c r="E221">
-        <v>34.083650781585973</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34.08365078158597</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -5255,16 +5201,16 @@
         <v>224</v>
       </c>
       <c r="C222">
-        <v>4.197553749138213E-4</v>
+        <v>0.0004197553749138213</v>
       </c>
       <c r="D222">
-        <v>8.3951074982764266E-7</v>
+        <v>8.395107498276427E-07</v>
       </c>
       <c r="E222">
-        <v>30.759737384051029</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30.75973738405103</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -5272,16 +5218,16 @@
         <v>225</v>
       </c>
       <c r="C223">
-        <v>4.996272495679222E-4</v>
+        <v>0.0004996272495679222</v>
       </c>
       <c r="D223">
-        <v>9.9925449913584473E-7</v>
+        <v>9.992544991358447E-07</v>
       </c>
       <c r="E223">
         <v>30.00323887655826</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -5289,16 +5235,16 @@
         <v>226</v>
       </c>
       <c r="C224">
-        <v>5.8077111657617287E-4</v>
+        <v>0.0005807711165761729</v>
       </c>
       <c r="D224">
-        <v>1.1615422331523461E-6</v>
+        <v>1.161542233152346E-06</v>
       </c>
       <c r="E224">
         <v>29.34964994824945</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -5306,16 +5252,16 @@
         <v>227</v>
       </c>
       <c r="C225">
-        <v>6.6628718099116086E-4</v>
+        <v>0.0006662871809911609</v>
       </c>
       <c r="D225">
-        <v>1.3325743619823219E-6</v>
+        <v>1.332574361982322E-06</v>
       </c>
       <c r="E225">
-        <v>28.753085465809502</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.7530854658095</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -5323,16 +5269,16 @@
         <v>228</v>
       </c>
       <c r="C226">
-        <v>9.1357476937718762E-4</v>
+        <v>0.0009135747693771876</v>
       </c>
       <c r="D226">
-        <v>1.8271495387543749E-6</v>
+        <v>1.827149538754375E-06</v>
       </c>
       <c r="E226">
-        <v>27.382259073829879</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.38225907382988</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -5340,16 +5286,16 @@
         <v>229</v>
       </c>
       <c r="C227">
-        <v>8.0782517721540302E-4</v>
+        <v>0.000807825177215403</v>
       </c>
       <c r="D227">
-        <v>1.615650354430806E-6</v>
+        <v>1.615650354430806E-06</v>
       </c>
       <c r="E227">
-        <v>27.916526197811731</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.91652619781173</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -5357,16 +5303,16 @@
         <v>230</v>
       </c>
       <c r="C228">
-        <v>1.10611241830811E-3</v>
+        <v>0.00110611241830811</v>
       </c>
       <c r="D228">
-        <v>2.2122248366162199E-6</v>
+        <v>2.21222483661622E-06</v>
       </c>
       <c r="E228">
         <v>26.55170736165007</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -5374,16 +5320,16 @@
         <v>231</v>
       </c>
       <c r="C229">
-        <v>9.9471863638543817E-4</v>
+        <v>0.0009947186363854382</v>
       </c>
       <c r="D229">
-        <v>1.9894372727708771E-6</v>
+        <v>1.989437272770877E-06</v>
       </c>
       <c r="E229">
         <v>27.01269749666093</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -5391,16 +5337,16 @@
         <v>232</v>
       </c>
       <c r="C230">
-        <v>4.1394751980926541E-4</v>
+        <v>0.0004139475198092654</v>
       </c>
       <c r="D230">
-        <v>8.2789503961853083E-7</v>
+        <v>8.278950396185308E-07</v>
       </c>
       <c r="E230">
         <v>30.82024719500042</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -5408,16 +5354,16 @@
         <v>233</v>
       </c>
       <c r="C231">
-        <v>3.8078865529319543E-4</v>
+        <v>0.0003807886552931954</v>
       </c>
       <c r="D231">
-        <v>7.6157731058639085E-7</v>
+        <v>7.615773105863909E-07</v>
       </c>
       <c r="E231">
-        <v>31.182860032185321</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.18286003218532</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -5425,16 +5371,16 @@
         <v>234</v>
       </c>
       <c r="C232">
-        <v>5.4744858671643408E-4</v>
+        <v>0.0005474485867164341</v>
       </c>
       <c r="D232">
-        <v>1.094897173432868E-6</v>
+        <v>1.094897173432868E-06</v>
       </c>
       <c r="E232">
-        <v>29.606266653970131</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.60626665397013</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -5442,16 +5388,16 @@
         <v>235</v>
       </c>
       <c r="C233">
-        <v>5.7332630422411766E-4</v>
+        <v>0.0005733263042241177</v>
       </c>
       <c r="D233">
-        <v>1.146652608448235E-6</v>
+        <v>1.146652608448235E-06</v>
       </c>
       <c r="E233">
-        <v>29.405681366633502</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.4056813666335</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -5459,16 +5405,16 @@
         <v>236</v>
       </c>
       <c r="C234">
-        <v>6.0784271593242569E-4</v>
+        <v>0.0006078427159324257</v>
       </c>
       <c r="D234">
-        <v>1.215685431864851E-6</v>
+        <v>1.215685431864851E-06</v>
       </c>
       <c r="E234">
-        <v>29.151787876281531</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.15178787628153</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -5476,16 +5422,16 @@
         <v>237</v>
       </c>
       <c r="C235">
-        <v>6.9960971085089975E-4</v>
+        <v>0.0006996097108508998</v>
       </c>
       <c r="D235">
-        <v>1.3992194217018E-6</v>
+        <v>1.3992194217018E-06</v>
       </c>
       <c r="E235">
         <v>28.54114175313698</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -5493,16 +5439,16 @@
         <v>238</v>
       </c>
       <c r="C236">
-        <v>6.9488349146558858E-4</v>
+        <v>0.0006948834914655886</v>
       </c>
       <c r="D236">
-        <v>1.3897669829311779E-6</v>
+        <v>1.389766982931178E-06</v>
       </c>
       <c r="E236">
-        <v>28.570580101850801</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.5705801018508</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -5510,16 +5456,16 @@
         <v>239</v>
       </c>
       <c r="C237">
-        <v>7.3998623564735632E-4</v>
+        <v>0.0007399862356473563</v>
       </c>
       <c r="D237">
-        <v>1.479972471294713E-6</v>
+        <v>1.479972471294713E-06</v>
       </c>
       <c r="E237">
-        <v>28.297463627644959</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.29746362764496</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -5527,16 +5473,16 @@
         <v>240</v>
       </c>
       <c r="C238">
-        <v>7.7602735847383925E-4</v>
+        <v>0.0007760273584738393</v>
       </c>
       <c r="D238">
-        <v>1.5520547169476791E-6</v>
+        <v>1.552054716947679E-06</v>
       </c>
       <c r="E238">
         <v>28.09092971963425</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -5544,16 +5490,16 @@
         <v>241</v>
       </c>
       <c r="C239">
-        <v>9.1938262448174361E-4</v>
+        <v>0.0009193826244817436</v>
       </c>
       <c r="D239">
-        <v>1.8387652489634871E-6</v>
+        <v>1.838765248963487E-06</v>
       </c>
       <c r="E239">
-        <v>27.354737126256719</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.35473712625672</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -5561,16 +5507,16 @@
         <v>242</v>
       </c>
       <c r="C240">
-        <v>8.8742114039651082E-4</v>
+        <v>0.0008874211403965108</v>
       </c>
       <c r="D240">
-        <v>1.7748422807930221E-6</v>
+        <v>1.774842280793022E-06</v>
       </c>
       <c r="E240">
-        <v>27.508402339467029</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.50840233946703</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -5578,16 +5524,16 @@
         <v>243</v>
       </c>
       <c r="C241">
-        <v>9.2193755210481874E-4</v>
+        <v>0.0009219375521048187</v>
       </c>
       <c r="D241">
-        <v>1.8438751042096381E-6</v>
+        <v>1.843875104209638E-06</v>
       </c>
       <c r="E241">
-        <v>27.342684994372512</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.34268499437251</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -5595,16 +5541,16 @@
         <v>244</v>
       </c>
       <c r="C242">
-        <v>9.4268728989707791E-4</v>
+        <v>0.0009426872898970779</v>
       </c>
       <c r="D242">
-        <v>1.8853745797941561E-6</v>
+        <v>1.885374579794156E-06</v>
       </c>
       <c r="E242">
         <v>27.24602352738605</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -5612,16 +5558,16 @@
         <v>245</v>
       </c>
       <c r="C243">
-        <v>1.1464366851209741E-3</v>
+        <v>0.001146436685120974</v>
       </c>
       <c r="D243">
-        <v>2.292873370241948E-6</v>
+        <v>2.292873370241948E-06</v>
       </c>
       <c r="E243">
         <v>26.39619929624072</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -5629,16 +5575,16 @@
         <v>246</v>
       </c>
       <c r="C244">
-        <v>3.9654960892748081E-4</v>
+        <v>0.0003965496089274808</v>
       </c>
       <c r="D244">
-        <v>7.9309921785496149E-7</v>
+        <v>7.930992178549615E-07</v>
       </c>
       <c r="E244">
-        <v>31.006724784182001</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.006724784182</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -5646,16 +5592,16 @@
         <v>247</v>
       </c>
       <c r="C245">
-        <v>5.2283301555426285E-4</v>
+        <v>0.0005228330155542628</v>
       </c>
       <c r="D245">
-        <v>1.045666031108526E-6</v>
+        <v>1.045666031108526E-06</v>
       </c>
       <c r="E245">
-        <v>29.806069999869901</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.8060699998699</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -5663,16 +5609,16 @@
         <v>248</v>
       </c>
       <c r="C246">
-        <v>5.9072421510590221E-4</v>
+        <v>0.0005907242151059022</v>
       </c>
       <c r="D246">
-        <v>1.181448430211805E-6</v>
+        <v>1.181448430211805E-06</v>
       </c>
       <c r="E246">
-        <v>29.275852304118391</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.27585230411839</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -5680,16 +5626,16 @@
         <v>249</v>
       </c>
       <c r="C247">
-        <v>5.6320954035071942E-4</v>
+        <v>0.0005632095403507194</v>
       </c>
       <c r="D247">
-        <v>1.1264190807014391E-6</v>
+        <v>1.126419080701439E-06</v>
       </c>
       <c r="E247">
-        <v>29.483000015141432</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.48300001514143</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -5697,16 +5643,16 @@
         <v>250</v>
       </c>
       <c r="C248">
-        <v>5.5756535058983222E-4</v>
+        <v>0.0005575653505898322</v>
       </c>
       <c r="D248">
-        <v>1.115130701179665E-6</v>
+        <v>1.115130701179665E-06</v>
       </c>
       <c r="E248">
-        <v>29.526742272575461</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.52674227257546</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -5714,16 +5660,16 @@
         <v>251</v>
       </c>
       <c r="C249">
-        <v>5.9925066317720235E-4</v>
+        <v>0.0005992506631772023</v>
       </c>
       <c r="D249">
-        <v>1.1985013263544049E-6</v>
+        <v>1.198501326354405E-06</v>
       </c>
       <c r="E249">
-        <v>29.213614810061468</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.21361481006147</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -5731,16 +5677,16 @@
         <v>252</v>
       </c>
       <c r="C250">
-        <v>7.1064444509987392E-4</v>
+        <v>0.0007106444450998739</v>
       </c>
       <c r="D250">
-        <v>1.4212888901997479E-6</v>
+        <v>1.421288890199748E-06</v>
       </c>
       <c r="E250">
         <v>28.47317638703101</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -5748,16 +5694,16 @@
         <v>253</v>
       </c>
       <c r="C251">
-        <v>8.1049712873674617E-4</v>
+        <v>0.0008104971287367462</v>
       </c>
       <c r="D251">
-        <v>1.6209942574734921E-6</v>
+        <v>1.620994257473492E-06</v>
       </c>
       <c r="E251">
-        <v>27.902185236783151</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.90218523678315</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -5765,16 +5711,16 @@
         <v>254</v>
       </c>
       <c r="C252">
-        <v>7.2422528201307099E-4</v>
+        <v>0.000724225282013071</v>
       </c>
       <c r="D252">
-        <v>1.448450564026142E-6</v>
+        <v>1.448450564026142E-06</v>
       </c>
       <c r="E252">
-        <v>28.390963227847159</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.39096322784716</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -5782,16 +5728,16 @@
         <v>255</v>
       </c>
       <c r="C253">
-        <v>7.65910594600441E-4</v>
+        <v>0.000765910594600441</v>
       </c>
       <c r="D253">
-        <v>1.5318211892008819E-6</v>
+        <v>1.531821189200882E-06</v>
       </c>
       <c r="E253">
         <v>28.14791927311536</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -5799,16 +5745,16 @@
         <v>256</v>
       </c>
       <c r="C254">
-        <v>7.8461941122906259E-4</v>
+        <v>0.0007846194112290626</v>
       </c>
       <c r="D254">
-        <v>1.5692388224581249E-6</v>
+        <v>1.569238822458125E-06</v>
       </c>
       <c r="E254">
-        <v>28.043109561053519</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.04310956105352</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -5816,16 +5762,16 @@
         <v>257</v>
       </c>
       <c r="C255">
-        <v>8.7166018676222549E-4</v>
+        <v>0.0008716601867622255</v>
       </c>
       <c r="D255">
-        <v>1.743320373524451E-6</v>
+        <v>1.743320373524451E-06</v>
       </c>
       <c r="E255">
-        <v>27.586227943769028</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.58622794376903</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -5833,16 +5779,16 @@
         <v>258</v>
       </c>
       <c r="C256">
-        <v>1.0131981829864681E-3</v>
+        <v>0.001013198182986468</v>
       </c>
       <c r="D256">
-        <v>2.026396365972936E-6</v>
+        <v>2.026396365972936E-06</v>
       </c>
       <c r="E256">
         <v>26.93275602056492</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -5850,16 +5796,16 @@
         <v>259</v>
       </c>
       <c r="C257">
-        <v>1.0987142474014561E-3</v>
+        <v>0.001098714247401456</v>
       </c>
       <c r="D257">
-        <v>2.197428494802912E-6</v>
+        <v>2.197428494802912E-06</v>
       </c>
       <c r="E257">
-        <v>26.580852481394128</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.58085248139413</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -5867,16 +5813,16 @@
         <v>260</v>
       </c>
       <c r="C258">
-        <v>1.7677669529663691E-4</v>
+        <v>0.0001767766952966369</v>
       </c>
       <c r="D258">
-        <v>3.5355339059327379E-7</v>
+        <v>3.535533905932738E-07</v>
       </c>
       <c r="E258">
-        <v>34.515449934959719</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34.51544993495972</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -5884,16 +5830,16 @@
         <v>261</v>
       </c>
       <c r="C259">
-        <v>3.7067189141979718E-4</v>
+        <v>0.0003706718914197972</v>
       </c>
       <c r="D259">
-        <v>7.4134378283959441E-7</v>
+        <v>7.413437828395944E-07</v>
       </c>
       <c r="E259">
-        <v>31.299803502301589</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.29980350230159</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -5901,16 +5847,16 @@
         <v>262</v>
       </c>
       <c r="C260">
-        <v>6.1795947980582383E-4</v>
+        <v>0.0006179594798058238</v>
       </c>
       <c r="D260">
-        <v>1.2359189596116479E-6</v>
+        <v>1.235918959611648E-06</v>
       </c>
       <c r="E260">
-        <v>29.080100054181941</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.08010005418194</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -5918,16 +5864,16 @@
         <v>263</v>
       </c>
       <c r="C261">
-        <v>6.8476672759219034E-4</v>
+        <v>0.0006847667275921903</v>
       </c>
       <c r="D261">
-        <v>1.369533455184381E-6</v>
+        <v>1.369533455184381E-06</v>
       </c>
       <c r="E261">
         <v>28.63427354264709</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -5935,16 +5881,16 @@
         <v>264</v>
       </c>
       <c r="C262">
-        <v>8.1049712873674617E-4</v>
+        <v>0.0008104971287367462</v>
       </c>
       <c r="D262">
-        <v>1.6209942574734921E-6</v>
+        <v>1.620994257473492E-06</v>
       </c>
       <c r="E262">
-        <v>27.902185236783151</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.90218523678315</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -5952,16 +5898,16 @@
         <v>265</v>
       </c>
       <c r="C263">
-        <v>9.3678053536352815E-4</v>
+        <v>0.0009367805353635282</v>
       </c>
       <c r="D263">
-        <v>1.873561070727056E-6</v>
+        <v>1.873561070727056E-06</v>
       </c>
       <c r="E263">
-        <v>27.273321460463009</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.27332146046301</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -5969,16 +5915,16 @@
         <v>266</v>
       </c>
       <c r="C264">
-        <v>9.0926586060834547E-4</v>
+        <v>0.0009092658606083455</v>
       </c>
       <c r="D264">
-        <v>1.8185317212166909E-6</v>
+        <v>1.818531721216691E-06</v>
       </c>
       <c r="E264">
         <v>27.40279119008931</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -5986,16 +5932,16 @@
         <v>267</v>
       </c>
       <c r="C265">
-        <v>9.3205431597821698E-4</v>
+        <v>0.000932054315978217</v>
       </c>
       <c r="D265">
-        <v>1.864108631956434E-6</v>
+        <v>1.864108631956434E-06</v>
       </c>
       <c r="E265">
-        <v>27.295287824946229</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.29528782494623</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -6003,16 +5949,16 @@
         <v>268</v>
       </c>
       <c r="C266">
-        <v>1.0131981829864681E-3</v>
+        <v>0.001013198182986468</v>
       </c>
       <c r="D266">
-        <v>2.026396365972936E-6</v>
+        <v>2.026396365972936E-06</v>
       </c>
       <c r="E266">
         <v>26.93275602056492</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -6020,16 +5966,16 @@
         <v>269</v>
       </c>
       <c r="C267">
-        <v>1.070281602270697E-3</v>
+        <v>0.001070281602270697</v>
       </c>
       <c r="D267">
-        <v>2.1405632045413941E-6</v>
+        <v>2.140563204541394E-06</v>
       </c>
       <c r="E267">
-        <v>26.694719442004711</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.69471944200471</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -6037,16 +5983,16 @@
         <v>270</v>
       </c>
       <c r="C268">
-        <v>1.1565534489943719E-3</v>
+        <v>0.001156553448994372</v>
       </c>
       <c r="D268">
-        <v>2.313106897988744E-6</v>
+        <v>2.313106897988744E-06</v>
       </c>
       <c r="E268">
-        <v>26.358042962679129</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.35804296267913</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -6054,16 +6000,16 @@
         <v>271</v>
       </c>
       <c r="C269">
-        <v>1.124591964909139E-3</v>
+        <v>0.001124591964909139</v>
       </c>
       <c r="D269">
-        <v>2.2491839298182792E-6</v>
+        <v>2.249183929818279E-06</v>
       </c>
       <c r="E269">
         <v>26.47975028139772</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -6071,16 +6017,16 @@
         <v>272</v>
       </c>
       <c r="C270">
-        <v>1.9039432764659771E-4</v>
+        <v>0.0001903943276465977</v>
       </c>
       <c r="D270">
-        <v>3.8078865529319537E-7</v>
+        <v>3.807886552931954E-07</v>
       </c>
       <c r="E270">
-        <v>34.193159988825123</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34.19315998882512</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -6088,16 +6034,16 @@
         <v>273</v>
       </c>
       <c r="C271">
-        <v>3.5705425906983643E-4</v>
+        <v>0.0003570542590698364</v>
       </c>
       <c r="D271">
-        <v>7.1410851813967283E-7</v>
+        <v>7.141085181396728E-07</v>
       </c>
       <c r="E271">
-        <v>31.462357864757251</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.46235786475725</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -6105,16 +6051,16 @@
         <v>274</v>
       </c>
       <c r="C272">
-        <v>5.0448916381899093E-4</v>
+        <v>0.0005044891638189909</v>
       </c>
       <c r="D272">
-        <v>1.0089783276379821E-6</v>
+        <v>1.008978327637982E-06</v>
       </c>
       <c r="E272">
         <v>29.96118162096408</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -6122,16 +6068,16 @@
         <v>275</v>
       </c>
       <c r="C273">
-        <v>6.0434184745586307E-4</v>
+        <v>0.0006043418474558631</v>
       </c>
       <c r="D273">
-        <v>1.208683694911726E-6</v>
+        <v>1.208683694911726E-06</v>
       </c>
       <c r="E273">
         <v>29.17687336465325</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -6139,16 +6085,16 @@
         <v>276</v>
       </c>
       <c r="C274">
-        <v>7.2898829683514595E-4</v>
+        <v>0.0007289882968351459</v>
       </c>
       <c r="D274">
-        <v>1.4579765936702921E-6</v>
+        <v>1.457976593670292E-06</v>
       </c>
       <c r="E274">
-        <v>28.362494481177901</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.3624944811779</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -6156,16 +6102,16 @@
         <v>277</v>
       </c>
       <c r="C275">
-        <v>7.9687949638678531E-4</v>
+        <v>0.0007968794963867853</v>
       </c>
       <c r="D275">
-        <v>1.593758992773571E-6</v>
+        <v>1.593758992773571E-06</v>
       </c>
       <c r="E275">
-        <v>27.975773517115879</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.97577351711588</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -6173,16 +6119,16 @@
         <v>278</v>
       </c>
       <c r="C276">
-        <v>8.9000403849749741E-4</v>
+        <v>0.0008900040384974974</v>
       </c>
       <c r="D276">
-        <v>1.780008076994995E-6</v>
+        <v>1.780008076994995E-06</v>
       </c>
       <c r="E276">
-        <v>27.495780270245898</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.4957802702459</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -6190,16 +6136,16 @@
         <v>279</v>
       </c>
       <c r="C277">
-        <v>9.9958055063650679E-4</v>
+        <v>0.0009995805506365068</v>
       </c>
       <c r="D277">
-        <v>1.9991611012730141E-6</v>
+        <v>1.999161101273014E-06</v>
       </c>
       <c r="E277">
-        <v>26.991522070951088</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.99152207095109</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -6207,16 +6153,16 @@
         <v>280</v>
       </c>
       <c r="C278">
-        <v>1.1170580991367281E-3</v>
+        <v>0.001117058099136728</v>
       </c>
       <c r="D278">
-        <v>2.2341161982734549E-6</v>
+        <v>2.234116198273455E-06</v>
       </c>
       <c r="E278">
-        <v>26.508942426095771</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.50894242609577</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -6224,16 +6170,16 @@
         <v>281</v>
       </c>
       <c r="C279">
-        <v>3.0923292192132449E-4</v>
+        <v>0.0003092329219213245</v>
       </c>
       <c r="D279">
-        <v>6.1846584384264919E-7</v>
+        <v>6.184658438426492E-07</v>
       </c>
       <c r="E279">
-        <v>32.086842802551807</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32.08684280255181</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -6241,16 +6187,16 @@
         <v>282</v>
       </c>
       <c r="C280">
-        <v>3.8565056954426399E-4</v>
+        <v>0.000385650569544264</v>
       </c>
       <c r="D280">
-        <v>7.7130113908852821E-7</v>
+        <v>7.713011390885282E-07</v>
       </c>
       <c r="E280">
-        <v>31.127760272534541</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.12776027253454</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -6258,16 +6204,16 @@
         <v>283</v>
       </c>
       <c r="C281">
-        <v>5.5231050096750281E-4</v>
+        <v>0.0005523105009675028</v>
       </c>
       <c r="D281">
-        <v>1.104621001935006E-6</v>
+        <v>1.104621001935006E-06</v>
       </c>
       <c r="E281">
-        <v>29.567867038809691</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.56786703880969</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -6275,16 +6221,16 @@
         <v>284</v>
       </c>
       <c r="C282">
-        <v>6.1014970256041906E-4</v>
+        <v>0.0006101497025604191</v>
       </c>
       <c r="D282">
-        <v>1.220299405120838E-6</v>
+        <v>1.220299405120838E-06</v>
       </c>
       <c r="E282">
-        <v>29.135336004409481</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.13533600440948</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -6292,16 +6238,16 @@
         <v>285</v>
       </c>
       <c r="C283">
-        <v>8.0432430873884041E-4</v>
+        <v>0.0008043243087388404</v>
       </c>
       <c r="D283">
-        <v>1.6086486174776811E-6</v>
+        <v>1.608648617477681E-06</v>
       </c>
       <c r="E283">
-        <v>27.935388099445461</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.93538809944546</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -6309,16 +6255,16 @@
         <v>286</v>
       </c>
       <c r="C284">
-        <v>7.9959808935352946E-4</v>
+        <v>0.0007995980893535295</v>
       </c>
       <c r="D284">
-        <v>1.599196178707059E-6</v>
+        <v>1.599196178707059E-06</v>
       </c>
       <c r="E284">
-        <v>27.960982566390769</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.96098256639077</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -6326,16 +6272,16 @@
         <v>287</v>
       </c>
       <c r="C285">
-        <v>7.7680963398365772E-4</v>
+        <v>0.0007768096339836577</v>
       </c>
       <c r="D285">
-        <v>1.553619267967315E-6</v>
+        <v>1.553619267967315E-06</v>
       </c>
       <c r="E285">
-        <v>28.086554012877741</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.08655401287774</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -6343,16 +6289,16 @@
         <v>288</v>
       </c>
       <c r="C286">
-        <v>7.7116544422277042E-4</v>
+        <v>0.0007711654442227704</v>
       </c>
       <c r="D286">
-        <v>1.5423308884455411E-6</v>
+        <v>1.542330888445541E-06</v>
       </c>
       <c r="E286">
-        <v>28.118224436585709</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.11822443658571</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -6360,16 +6306,16 @@
         <v>289</v>
       </c>
       <c r="C287">
-        <v>9.9213573828445169E-4</v>
+        <v>0.0009921357382844517</v>
       </c>
       <c r="D287">
-        <v>1.9842714765689038E-6</v>
+        <v>1.984271476568904E-06</v>
       </c>
       <c r="E287">
         <v>27.02398910452898</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -6377,16 +6323,16 @@
         <v>290</v>
       </c>
       <c r="C288">
-        <v>1.0240972223696839E-3</v>
+        <v>0.001024097222369684</v>
       </c>
       <c r="D288">
-        <v>2.048194444739369E-6</v>
+        <v>2.048194444739369E-06</v>
       </c>
       <c r="E288">
-        <v>26.886288161196571</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.88628816119657</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -6394,16 +6340,16 @@
         <v>291</v>
       </c>
       <c r="C289">
-        <v>9.3782537564600929E-4</v>
+        <v>0.0009378253756460093</v>
       </c>
       <c r="D289">
-        <v>1.8756507512920181E-6</v>
+        <v>1.875650751292018E-06</v>
       </c>
       <c r="E289">
-        <v>27.268480246493979</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.26848024649398</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -6411,16 +6357,16 @@
         <v>292</v>
       </c>
       <c r="C290">
-        <v>9.9821950486200079E-4</v>
+        <v>0.0009982195048620008</v>
       </c>
       <c r="D290">
-        <v>1.9964390097240018E-6</v>
+        <v>1.996439009724002E-06</v>
       </c>
       <c r="E290">
-        <v>26.997439527598541</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.99743952759854</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -6428,16 +6374,16 @@
         <v>293</v>
       </c>
       <c r="C291">
-        <v>3.9037678892957521E-4</v>
+        <v>0.0003903767889295752</v>
       </c>
       <c r="D291">
-        <v>7.8075357785915045E-7</v>
+        <v>7.807535778591504E-07</v>
       </c>
       <c r="E291">
-        <v>31.074860169076569</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.07486016907657</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -6445,16 +6391,16 @@
         <v>294</v>
       </c>
       <c r="C292">
-        <v>3.8565056954426399E-4</v>
+        <v>0.000385650569544264</v>
       </c>
       <c r="D292">
-        <v>7.7130113908852821E-7</v>
+        <v>7.713011390885282E-07</v>
       </c>
       <c r="E292">
-        <v>31.127760272534541</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.12776027253454</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -6462,16 +6408,16 @@
         <v>295</v>
       </c>
       <c r="C293">
-        <v>6.1014970256041896E-4</v>
+        <v>0.000610149702560419</v>
       </c>
       <c r="D293">
-        <v>1.220299405120838E-6</v>
+        <v>1.220299405120838E-06</v>
       </c>
       <c r="E293">
-        <v>29.135336004409481</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.13533600440948</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -6479,16 +6425,16 @@
         <v>296</v>
       </c>
       <c r="C294">
-        <v>5.7818821847518639E-4</v>
+        <v>0.0005781882184751864</v>
       </c>
       <c r="D294">
-        <v>1.156376436950373E-6</v>
+        <v>1.156376436950373E-06</v>
       </c>
       <c r="E294">
         <v>29.36900766367248</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -6496,16 +6442,16 @@
         <v>297</v>
       </c>
       <c r="C295">
-        <v>6.127046301834943E-4</v>
+        <v>0.0006127046301834943</v>
       </c>
       <c r="D295">
-        <v>1.225409260366989E-6</v>
+        <v>1.225409260366989E-06</v>
       </c>
       <c r="E295">
         <v>29.11718842046265</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -6513,16 +6459,16 @@
         <v>298</v>
       </c>
       <c r="C296">
-        <v>7.2318044173058996E-4</v>
+        <v>0.00072318044173059</v>
       </c>
       <c r="D296">
-        <v>1.4463608834611799E-6</v>
+        <v>1.44636088346118E-06</v>
       </c>
       <c r="E296">
-        <v>28.397233321166919</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.39723332116692</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -6530,16 +6476,16 @@
         <v>299</v>
       </c>
       <c r="C297">
-        <v>6.9002157721451986E-4</v>
+        <v>0.0006900215772145199</v>
       </c>
       <c r="D297">
-        <v>1.3800431544290399E-6</v>
+        <v>1.38004315442904E-06</v>
       </c>
       <c r="E297">
         <v>28.60107332847047</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -6547,16 +6493,16 @@
         <v>300</v>
       </c>
       <c r="C298">
-        <v>8.3720376319964922E-4</v>
+        <v>0.0008372037631996492</v>
       </c>
       <c r="D298">
-        <v>1.6744075263992989E-6</v>
+        <v>1.674407526399299E-06</v>
       </c>
       <c r="E298">
         <v>27.76138832527506</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -6564,16 +6510,16 @@
         <v>301</v>
       </c>
       <c r="C299">
-        <v>7.9959808935352946E-4</v>
+        <v>0.0007995980893535295</v>
       </c>
       <c r="D299">
-        <v>1.599196178707059E-6</v>
+        <v>1.599196178707059E-06</v>
       </c>
       <c r="E299">
-        <v>27.960982566390769</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.96098256639077</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -6581,16 +6527,16 @@
         <v>302</v>
       </c>
       <c r="C300">
-        <v>8.5668150863775852E-4</v>
+        <v>0.0008566815086377585</v>
       </c>
       <c r="D300">
-        <v>1.713363017275518E-6</v>
+        <v>1.713363017275518E-06</v>
       </c>
       <c r="E300">
-        <v>27.661506115255818</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.66150611525582</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -6598,16 +6544,16 @@
         <v>303</v>
       </c>
       <c r="C301">
-        <v>8.8255922614544221E-4</v>
+        <v>0.0008825592261454422</v>
       </c>
       <c r="D301">
-        <v>1.7651184522908849E-6</v>
+        <v>1.765118452290885E-06</v>
       </c>
       <c r="E301">
-        <v>27.532261449786201</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.5322614497862</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -6615,16 +6561,16 @@
         <v>304</v>
       </c>
       <c r="C302">
-        <v>9.1707563785375012E-4</v>
+        <v>0.0009170756378537501</v>
       </c>
       <c r="D302">
-        <v>1.8341512757075001E-6</v>
+        <v>1.8341512757075E-06</v>
       </c>
       <c r="E302">
         <v>27.36564847785062</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -6632,16 +6578,16 @@
         <v>305</v>
       </c>
       <c r="C303">
-        <v>1.0240972223696839E-3</v>
+        <v>0.001024097222369684</v>
       </c>
       <c r="D303">
-        <v>2.048194444739369E-6</v>
+        <v>2.048194444739369E-06</v>
       </c>
       <c r="E303">
-        <v>26.886288161196571</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.88628816119657</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -6649,16 +6595,16 @@
         <v>306</v>
       </c>
       <c r="C304">
-        <v>1.0492191575686811E-3</v>
+        <v>0.001049219157568681</v>
       </c>
       <c r="D304">
-        <v>2.0984383151373619E-6</v>
+        <v>2.098438315137362E-06</v>
       </c>
       <c r="E304">
-        <v>26.781037926136548</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.78103792613655</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -6666,16 +6612,16 @@
         <v>307</v>
       </c>
       <c r="C305">
-        <v>2.136000936329383E-4</v>
+        <v>0.0002136000936329383</v>
       </c>
       <c r="D305">
-        <v>4.2720018726587661E-7</v>
+        <v>4.272001872658766E-07</v>
       </c>
       <c r="E305">
         <v>33.69368565603753</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -6683,16 +6629,16 @@
         <v>308</v>
       </c>
       <c r="C306">
-        <v>4.0141152317854938E-4</v>
+        <v>0.0004014115231785494</v>
       </c>
       <c r="D306">
-        <v>8.0282304635709895E-7</v>
+        <v>8.028230463570989E-07</v>
       </c>
       <c r="E306">
-        <v>30.953801688675949</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30.95380168867595</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -6700,16 +6646,16 @@
         <v>309</v>
       </c>
       <c r="C307">
-        <v>5.6242726484090095E-4</v>
+        <v>0.0005624272648409009</v>
       </c>
       <c r="D307">
-        <v>1.1248545296818019E-6</v>
+        <v>1.124854529681802E-06</v>
       </c>
       <c r="E307">
         <v>29.4890363847834</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -6717,16 +6663,16 @@
         <v>310</v>
       </c>
       <c r="C308">
-        <v>7.057825308488053E-4</v>
+        <v>0.0007057825308488053</v>
       </c>
       <c r="D308">
-        <v>1.411565061697611E-6</v>
+        <v>1.411565061697611E-06</v>
       </c>
       <c r="E308">
-        <v>28.502990996034509</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.50299099603451</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -6734,16 +6680,16 @@
         <v>311</v>
       </c>
       <c r="C309">
-        <v>7.8948132548013121E-4</v>
+        <v>0.0007894813254801312</v>
       </c>
       <c r="D309">
-        <v>1.5789626509602621E-6</v>
+        <v>1.578962650960262E-06</v>
       </c>
       <c r="E309">
         <v>28.01628142742625</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -6751,16 +6697,16 @@
         <v>312</v>
       </c>
       <c r="C310">
-        <v>8.9995713702722686E-4</v>
+        <v>0.0008999571370272269</v>
       </c>
       <c r="D310">
-        <v>1.7999142740544541E-6</v>
+        <v>1.799914274054454E-06</v>
       </c>
       <c r="E310">
-        <v>27.447481788920779</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.44748178892078</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -6768,16 +6714,16 @@
         <v>313</v>
       </c>
       <c r="C311">
-        <v>8.7244246227204396E-4</v>
+        <v>0.000872442462272044</v>
       </c>
       <c r="D311">
-        <v>1.744884924544088E-6</v>
+        <v>1.744884924544088E-06</v>
       </c>
       <c r="E311">
         <v>27.58233209554918</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -6785,16 +6731,16 @@
         <v>314</v>
       </c>
       <c r="C312">
-        <v>8.6679827251115677E-4</v>
+        <v>0.0008667982725111568</v>
       </c>
       <c r="D312">
-        <v>1.7335965450223141E-6</v>
+        <v>1.733596545022314E-06</v>
       </c>
       <c r="E312">
         <v>27.6105196721618</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -6802,16 +6748,16 @@
         <v>315</v>
       </c>
       <c r="C313">
-        <v>9.7637478465016636E-4</v>
+        <v>0.0009763747846501664</v>
       </c>
       <c r="D313">
-        <v>1.952749569300333E-6</v>
+        <v>1.952749569300333E-06</v>
       </c>
       <c r="E313">
-        <v>27.093534493105491</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.09353449310549</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -6819,16 +6765,16 @@
         <v>316</v>
       </c>
       <c r="C314">
-        <v>1.119730050658071E-3</v>
+        <v>0.001119730050658071</v>
       </c>
       <c r="D314">
-        <v>2.239460101316141E-6</v>
+        <v>2.239460101316141E-06</v>
       </c>
       <c r="E314">
-        <v>26.498566706305869</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.49856670630587</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -6836,16 +6782,16 @@
         <v>317</v>
       </c>
       <c r="C315">
-        <v>1.033458203934396E-3</v>
+        <v>0.001033458203934396</v>
       </c>
       <c r="D315">
-        <v>2.0669164078687919E-6</v>
+        <v>2.066916407868792E-06</v>
       </c>
       <c r="E315">
-        <v>26.846770871537551</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.84677087153755</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -6853,16 +6799,16 @@
         <v>318</v>
       </c>
       <c r="C316">
-        <v>1.093852333150387E-3</v>
+        <v>0.001093852333150387</v>
       </c>
       <c r="D316">
-        <v>2.1877046663007738E-6</v>
+        <v>2.187704666300774E-06</v>
       </c>
       <c r="E316">
         <v>26.60011306860082</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -6870,16 +6816,16 @@
         <v>319</v>
       </c>
       <c r="C317">
-        <v>3.7553380567086579E-4</v>
+        <v>0.0003755338056708658</v>
       </c>
       <c r="D317">
-        <v>7.5106761134173187E-7</v>
+        <v>7.510676113417319E-07</v>
       </c>
       <c r="E317">
-        <v>31.243209659106849</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.24320965910685</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -6887,16 +6833,16 @@
         <v>320</v>
       </c>
       <c r="C318">
-        <v>4.8600961721796139E-4</v>
+        <v>0.0004860096172179614</v>
       </c>
       <c r="D318">
-        <v>9.7201923443592304E-7</v>
+        <v>9.72019234435923E-07</v>
       </c>
       <c r="E318">
-        <v>30.123251411161799</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30.1232514111618</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -6904,16 +6850,16 @@
         <v>321</v>
       </c>
       <c r="C319">
-        <v>6.2754761344220361E-4</v>
+        <v>0.0006275476134422036</v>
       </c>
       <c r="D319">
-        <v>1.2550952268844069E-6</v>
+        <v>1.255095226884407E-06</v>
       </c>
       <c r="E319">
-        <v>29.013233220383359</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.01323322038336</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -6921,16 +6867,16 @@
         <v>322</v>
       </c>
       <c r="C320">
-        <v>6.0003293868702082E-4</v>
+        <v>0.0006000329386870208</v>
       </c>
       <c r="D320">
-        <v>1.2000658773740421E-6</v>
+        <v>1.200065877374042E-06</v>
       </c>
       <c r="E320">
-        <v>29.207949127900928</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.20794912790093</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -6938,16 +6884,16 @@
         <v>323</v>
       </c>
       <c r="C321">
-        <v>6.2282139405689255E-4</v>
+        <v>0.0006228213940568926</v>
       </c>
       <c r="D321">
-        <v>1.2456427881137851E-6</v>
+        <v>1.245642788113785E-06</v>
       </c>
       <c r="E321">
-        <v>29.046064820692351</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.04606482069235</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -6955,16 +6901,16 @@
         <v>324</v>
       </c>
       <c r="C322">
-        <v>5.6242726484090095E-4</v>
+        <v>0.0005624272648409009</v>
       </c>
       <c r="D322">
-        <v>1.1248545296818019E-6</v>
+        <v>1.124854529681802E-06</v>
       </c>
       <c r="E322">
         <v>29.4890363847834</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -6972,16 +6918,16 @@
         <v>325</v>
       </c>
       <c r="C323">
-        <v>6.7990481334112172E-4</v>
+        <v>0.0006799048133411217</v>
       </c>
       <c r="D323">
-        <v>1.359809626682244E-6</v>
+        <v>1.359809626682244E-06</v>
       </c>
       <c r="E323">
         <v>28.66521888591987</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -6989,16 +6935,16 @@
         <v>326</v>
       </c>
       <c r="C324">
-        <v>7.6104868034937239E-4</v>
+        <v>0.0007610486803493724</v>
       </c>
       <c r="D324">
-        <v>1.522097360698745E-6</v>
+        <v>1.522097360698745E-06</v>
       </c>
       <c r="E324">
-        <v>28.175575671042949</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.17557567104295</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -7006,16 +6952,16 @@
         <v>327</v>
       </c>
       <c r="C325">
-        <v>8.4732052707304746E-4</v>
+        <v>0.0008473205270730475</v>
       </c>
       <c r="D325">
-        <v>1.6946410541460951E-6</v>
+        <v>1.694641054146095E-06</v>
       </c>
       <c r="E325">
         <v>27.70922276642025</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -7023,16 +6969,16 @@
         <v>328</v>
       </c>
       <c r="C326">
-        <v>7.8692639785705586E-4</v>
+        <v>0.0007869263978570559</v>
       </c>
       <c r="D326">
-        <v>1.5738527957141119E-6</v>
+        <v>1.573852795714112E-06</v>
       </c>
       <c r="E326">
         <v>28.03035890146398</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -7040,16 +6986,16 @@
         <v>329</v>
       </c>
       <c r="C327">
-        <v>8.1535904298781479E-4</v>
+        <v>0.0008153590429878148</v>
       </c>
       <c r="D327">
-        <v>1.6307180859756301E-6</v>
+        <v>1.63071808597563E-06</v>
       </c>
       <c r="E327">
-        <v>27.876211120973981</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.87621112097398</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -7057,16 +7003,16 @@
         <v>330</v>
       </c>
       <c r="C328">
-        <v>9.2719240172714837E-4</v>
+        <v>0.0009271924017271484</v>
       </c>
       <c r="D328">
-        <v>1.854384803454297E-6</v>
+        <v>1.854384803454297E-06</v>
       </c>
       <c r="E328">
         <v>27.31800140376912</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -7074,16 +7020,16 @@
         <v>331</v>
       </c>
       <c r="C329">
-        <v>9.4794213951940743E-4</v>
+        <v>0.0009479421395194074</v>
       </c>
       <c r="D329">
-        <v>1.895884279038815E-6</v>
+        <v>1.895884279038815E-06</v>
       </c>
       <c r="E329">
-        <v>27.221881746501911</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.22188174650191</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -7091,16 +7037,16 @@
         <v>332</v>
       </c>
       <c r="C330">
-        <v>1.119730050658071E-3</v>
+        <v>0.001119730050658071</v>
       </c>
       <c r="D330">
-        <v>2.239460101316141E-6</v>
+        <v>2.239460101316141E-06</v>
       </c>
       <c r="E330">
-        <v>26.498566706305869</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.49856670630587</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -7108,16 +7054,16 @@
         <v>333</v>
       </c>
       <c r="C331">
-        <v>1.9525624189766641E-4</v>
+        <v>0.0001952562418976664</v>
       </c>
       <c r="D331">
-        <v>3.9051248379533278E-7</v>
+        <v>3.905124837953328E-07</v>
       </c>
       <c r="E331">
-        <v>34.083650781585973</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34.08365078158597</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -7125,16 +7071,16 @@
         <v>334</v>
       </c>
       <c r="C332">
-        <v>4.197553749138213E-4</v>
+        <v>0.0004197553749138213</v>
       </c>
       <c r="D332">
-        <v>8.3951074982764266E-7</v>
+        <v>8.395107498276427E-07</v>
       </c>
       <c r="E332">
-        <v>30.759737384051029</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30.75973738405103</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -7142,16 +7088,16 @@
         <v>335</v>
       </c>
       <c r="C333">
-        <v>4.996272495679222E-4</v>
+        <v>0.0004996272495679222</v>
       </c>
       <c r="D333">
-        <v>9.9925449913584473E-7</v>
+        <v>9.992544991358447E-07</v>
       </c>
       <c r="E333">
         <v>30.00323887655826</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -7159,16 +7105,16 @@
         <v>336</v>
       </c>
       <c r="C334">
-        <v>5.8077111657617287E-4</v>
+        <v>0.0005807711165761729</v>
       </c>
       <c r="D334">
-        <v>1.1615422331523461E-6</v>
+        <v>1.161542233152346E-06</v>
       </c>
       <c r="E334">
         <v>29.34964994824945</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -7176,16 +7122,16 @@
         <v>337</v>
       </c>
       <c r="C335">
-        <v>6.6628718099116086E-4</v>
+        <v>0.0006662871809911609</v>
       </c>
       <c r="D335">
-        <v>1.3325743619823219E-6</v>
+        <v>1.332574361982322E-06</v>
       </c>
       <c r="E335">
-        <v>28.753085465809502</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.7530854658095</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -7193,16 +7139,16 @@
         <v>338</v>
       </c>
       <c r="C336">
-        <v>8.0782517721540302E-4</v>
+        <v>0.000807825177215403</v>
       </c>
       <c r="D336">
-        <v>1.615650354430806E-6</v>
+        <v>1.615650354430806E-06</v>
       </c>
       <c r="E336">
-        <v>27.916526197811731</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.91652619781173</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -7210,16 +7156,16 @@
         <v>339</v>
       </c>
       <c r="C337">
-        <v>9.1357476937718762E-4</v>
+        <v>0.0009135747693771876</v>
       </c>
       <c r="D337">
-        <v>1.8271495387543749E-6</v>
+        <v>1.827149538754375E-06</v>
       </c>
       <c r="E337">
-        <v>27.382259073829879</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.38225907382988</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -7227,16 +7173,16 @@
         <v>340</v>
       </c>
       <c r="C338">
-        <v>9.9471863638543817E-4</v>
+        <v>0.0009947186363854382</v>
       </c>
       <c r="D338">
-        <v>1.9894372727708771E-6</v>
+        <v>1.989437272770877E-06</v>
       </c>
       <c r="E338">
         <v>27.01269749666093</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -7244,16 +7190,16 @@
         <v>341</v>
       </c>
       <c r="C339">
-        <v>1.10611241830811E-3</v>
+        <v>0.00110611241830811</v>
       </c>
       <c r="D339">
-        <v>2.2122248366162199E-6</v>
+        <v>2.21222483661622E-06</v>
       </c>
       <c r="E339">
         <v>26.55170736165007</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -7261,16 +7207,16 @@
         <v>342</v>
       </c>
       <c r="C340">
-        <v>3.0923292192132449E-4</v>
+        <v>0.0003092329219213245</v>
       </c>
       <c r="D340">
-        <v>6.1846584384264919E-7</v>
+        <v>6.184658438426492E-07</v>
       </c>
       <c r="E340">
-        <v>32.086842802551807</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32.08684280255181</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -7278,16 +7224,16 @@
         <v>343</v>
       </c>
       <c r="C341">
-        <v>3.8565056954426399E-4</v>
+        <v>0.000385650569544264</v>
       </c>
       <c r="D341">
-        <v>7.7130113908852821E-7</v>
+        <v>7.713011390885282E-07</v>
       </c>
       <c r="E341">
-        <v>31.127760272534541</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.12776027253454</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -7295,16 +7241,16 @@
         <v>344</v>
       </c>
       <c r="C342">
-        <v>6.1014970256041896E-4</v>
+        <v>0.000610149702560419</v>
       </c>
       <c r="D342">
-        <v>1.220299405120838E-6</v>
+        <v>1.220299405120838E-06</v>
       </c>
       <c r="E342">
-        <v>29.135336004409481</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.13533600440948</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -7312,16 +7258,16 @@
         <v>345</v>
       </c>
       <c r="C343">
-        <v>5.5231050096750281E-4</v>
+        <v>0.0005523105009675028</v>
       </c>
       <c r="D343">
-        <v>1.104621001935006E-6</v>
+        <v>1.104621001935006E-06</v>
       </c>
       <c r="E343">
-        <v>29.567867038809691</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.56786703880969</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -7329,16 +7275,16 @@
         <v>346</v>
       </c>
       <c r="C344">
-        <v>8.0432430873884052E-4</v>
+        <v>0.0008043243087388405</v>
       </c>
       <c r="D344">
-        <v>1.6086486174776811E-6</v>
+        <v>1.608648617477681E-06</v>
       </c>
       <c r="E344">
-        <v>27.935388099445461</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.93538809944546</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -7346,16 +7292,16 @@
         <v>347</v>
       </c>
       <c r="C345">
-        <v>7.7116544422277053E-4</v>
+        <v>0.0007711654442227705</v>
       </c>
       <c r="D345">
-        <v>1.5423308884455411E-6</v>
+        <v>1.542330888445541E-06</v>
       </c>
       <c r="E345">
-        <v>28.118224436585709</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.11822443658571</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -7363,16 +7309,16 @@
         <v>348</v>
       </c>
       <c r="C346">
-        <v>7.7680963398365772E-4</v>
+        <v>0.0007768096339836577</v>
       </c>
       <c r="D346">
-        <v>1.553619267967315E-6</v>
+        <v>1.553619267967315E-06</v>
       </c>
       <c r="E346">
-        <v>28.086554012877741</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28.08655401287774</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -7380,16 +7326,16 @@
         <v>349</v>
       </c>
       <c r="C347">
-        <v>7.9959808935352946E-4</v>
+        <v>0.0007995980893535295</v>
       </c>
       <c r="D347">
-        <v>1.599196178707059E-6</v>
+        <v>1.599196178707059E-06</v>
       </c>
       <c r="E347">
-        <v>27.960982566390769</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.96098256639077</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -7397,16 +7343,16 @@
         <v>350</v>
       </c>
       <c r="C348">
-        <v>9.9821950486200079E-4</v>
+        <v>0.0009982195048620008</v>
       </c>
       <c r="D348">
-        <v>1.9964390097240018E-6</v>
+        <v>1.996439009724002E-06</v>
       </c>
       <c r="E348">
-        <v>26.997439527598541</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.99743952759854</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -7414,16 +7360,16 @@
         <v>351</v>
       </c>
       <c r="C349">
-        <v>9.3782537564600929E-4</v>
+        <v>0.0009378253756460093</v>
       </c>
       <c r="D349">
-        <v>1.8756507512920189E-6</v>
+        <v>1.875650751292019E-06</v>
       </c>
       <c r="E349">
-        <v>27.268480246493979</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.26848024649398</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -7431,16 +7377,16 @@
         <v>352</v>
       </c>
       <c r="C350">
-        <v>1.0240972223696839E-3</v>
+        <v>0.001024097222369684</v>
       </c>
       <c r="D350">
-        <v>2.048194444739369E-6</v>
+        <v>2.048194444739369E-06</v>
       </c>
       <c r="E350">
-        <v>26.886288161196571</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.88628816119657</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -7448,10 +7394,10 @@
         <v>353</v>
       </c>
       <c r="C351">
-        <v>9.9213573828445169E-4</v>
+        <v>0.0009921357382844517</v>
       </c>
       <c r="D351">
-        <v>1.984271476568903E-6</v>
+        <v>1.984271476568903E-06</v>
       </c>
       <c r="E351">
         <v>27.02398910452898</v>
